--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\"/>
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
-    <sheet name="Nuage de mot" sheetId="4" r:id="rId4"/>
+    <sheet name="Informations" sheetId="5" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId4"/>
+    <sheet name="WordCloud" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Segment_Années">#N/A</definedName>
@@ -23,13 +24,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
   <si>
     <t>Année</t>
   </si>
@@ -156,16 +157,37 @@
     <t>Somme de Nb mort</t>
   </si>
   <si>
-    <t>top 10 nom contenu</t>
+    <t>Depuis des centaines d’années la planète est en proie à de nombreux phénomènes météorologiques naturels (éruption volcanique, séisme, ouragan…). Ces phénomènes se sont amplifiés à cause des activités humaines qui ont accéléré le réchauffement climatique. Après leurs passages, les dégâts peuvent être important et des victimes sont souvent à déplorer. Ces catastrophes font donc l’actualité dans les médias lorsqu’ils se produisent.</t>
   </si>
   <si>
-    <t>10 nom titre</t>
+    <t xml:space="preserve">Notre problématique est la suivante : Les catastrophes naturelles sont-elles plus fréquentes et destructrices depuis le début du XXIe siècle? </t>
   </si>
   <si>
-    <t>top 10 verbe contenu</t>
+    <t>Les Catastrophes Naturelles</t>
   </si>
   <si>
-    <t>top 10 verbe titre</t>
+    <t>Top 10  des noms dans le contenu des articles</t>
+  </si>
+  <si>
+    <t>Top 10  des verbes dans le titre des articles</t>
+  </si>
+  <si>
+    <t>Top 10  des verbes dans le contenu des articles</t>
+  </si>
+  <si>
+    <t>Top 10  des noms dans le titre des articles</t>
+  </si>
+  <si>
+    <t>Top 10  des adjectifs dans le titre des articles</t>
+  </si>
+  <si>
+    <t>Top 10  des adjectifs dans le contenu des articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au travers du Dashbord nous allons montrer les différents résultats obtenus en analysant les articles. </t>
+  </si>
+  <si>
+    <t>Nombre de morts selon la catastrophe naturelle et l'année</t>
   </si>
 </sst>
 </file>
@@ -178,7 +200,7 @@
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +223,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,18 +262,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,12 +275,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,16 +327,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0%"/>
     </dxf>
@@ -339,87 +438,6 @@
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -447,7 +465,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Classeur1.xlsx]Transformation data!Tableau croisé dynamique1</c:name>
+    <c:name>[Dashboard.xlsx]Transformation data!Tableau croisé dynamique1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1048,7 +1066,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-9B2C-4555-AD45-105D95F0705D}"/>
+              <c16:uniqueId val="{0000001D-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,7 +1227,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-9B2C-4555-AD45-105D95F0705D}"/>
+              <c16:uniqueId val="{0000001E-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1370,7 +1388,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-9B2C-4555-AD45-105D95F0705D}"/>
+              <c16:uniqueId val="{0000001F-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1531,7 +1549,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-9B2C-4555-AD45-105D95F0705D}"/>
+              <c16:uniqueId val="{00000020-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1692,7 +1710,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-9B2C-4555-AD45-105D95F0705D}"/>
+              <c16:uniqueId val="{00000021-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1923,7 +1941,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Classeur1.xlsx]Transformation data!Tableau croisé dynamique2</c:name>
+    <c:name>[Dashboard.xlsx]Transformation data!Tableau croisé dynamique2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2123,6 +2141,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -2138,6 +2195,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -2153,6 +2249,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -2168,6 +2303,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
@@ -2183,9 +2357,192 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -2202,9 +2559,8 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2229,7 +2585,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -2302,49 +2657,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="4">
-                  <c:v>1815</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14496</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5672</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1673</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>379279393</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5475</c:v>
+                  <c:v>1974</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>857697771</c:v>
+                  <c:v>1426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3742269</c:v>
+                  <c:v>1081</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>261100</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>474032</c:v>
+                  <c:v>1566</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7189</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81235</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>429641648</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8159045</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5346</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,12 +2728,11 @@
             <a:solidFill>
               <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -2451,47 +2805,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="4">
-                  <c:v>7054</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>815394642</c:v>
+                  <c:v>2946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5320</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9077577</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104432</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88202</c:v>
+                  <c:v>1505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195123</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70645721136</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1251567</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>218685</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>345437798</c:v>
+                  <c:v>1242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99969</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-DE53-48F9-8CC4-BE2392D86605}"/>
+              <c16:uniqueId val="{0000001D-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2513,12 +2867,11 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -2591,68 +2944,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1574</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22478</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2085</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2976</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211707</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24975667531</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2773</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53447</c:v>
+                  <c:v>1512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3590</c:v>
+                  <c:v>1048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87491</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3161</c:v>
+                  <c:v>1133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114176</c:v>
+                  <c:v>1313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1980733</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5484</c:v>
+                  <c:v>1516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3044</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47136</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14090164</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1299847</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3179</c:v>
+                  <c:v>1731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-DE53-48F9-8CC4-BE2392D86605}"/>
+              <c16:uniqueId val="{0000001E-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2674,12 +3027,11 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -2752,47 +3104,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="4">
-                  <c:v>1338</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19769</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78498291</c:v>
+                  <c:v>2519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>129745775086</c:v>
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17423743520</c:v>
+                  <c:v>1821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3923166</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7075026</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68217</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>576831</c:v>
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8382605</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2505</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-DE53-48F9-8CC4-BE2392D86605}"/>
+              <c16:uniqueId val="{0000001F-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2814,12 +3169,11 @@
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -2891,36 +3245,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="4">
-                  <c:v>40999</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>6579</c:v>
+                  <c:v>9629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8805</c:v>
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1610</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>576</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1337</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>562</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-DE53-48F9-8CC4-BE2392D86605}"/>
+              <c16:uniqueId val="{00000020-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2942,12 +3293,11 @@
             <a:solidFill>
               <a:schemeClr val="accent6"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$L$6:$L$25</c:f>
@@ -3020,68 +3370,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>4310</c:v>
+                  <c:v>4490</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1397</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>746</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>424575</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16591011</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>788</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>684</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5216</c:v>
+                  <c:v>1741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98943</c:v>
+                  <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>353741</c:v>
+                  <c:v>1603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130328051</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10838</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11788183</c:v>
+                  <c:v>2290</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>665062</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194989</c:v>
+                  <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>432318</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3618</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>978</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-DE53-48F9-8CC4-BE2392D86605}"/>
+              <c16:uniqueId val="{00000021-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3093,11 +3443,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="999916640"/>
         <c:axId val="999920800"/>
-      </c:barChart>
+      </c:areaChart>
       <c:catAx>
         <c:axId val="999916640"/>
         <c:scaling>
@@ -3153,6 +3501,7 @@
         <c:axId val="999920800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3203,7 +3552,7 @@
         </c:txPr>
         <c:crossAx val="999916640"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4387,6 +4736,447 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="https://lh3.googleusercontent.com/zfKOc4fCnY4eznwsO6F1u2b37EhcnCopOaqr1UvaFp5h5QNnboY5LkAp8SYDJh7UZRvjPA9nAE9JhAgOG22kXfBUVlu0XL4IPmHdIn4rkUUOdGvPrtf1_0T1BYdP870gkQZOVb9U"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9553575" y="209550"/>
+          <a:ext cx="2409825" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Sans titre.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="238125" y="171450"/>
+          <a:ext cx="1866900" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="3473131"/>
+          <a:ext cx="866775" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076451</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2956245</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419601" y="3473132"/>
+          <a:ext cx="879794" cy="879794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3000374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4152899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343524" y="3762375"/>
+          <a:ext cx="1152525" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>11 335 articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943099</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133724" y="3752850"/>
+          <a:ext cx="1152525" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>6 sources</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4400551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5391151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743701" y="3435031"/>
+          <a:ext cx="990600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5467349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6762750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810499" y="3733800"/>
+          <a:ext cx="1295401" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>6 catastrophes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1" baseline="0"/>
+            <a:t> naturelles étudiées</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4414,9 +5204,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -4491,14 +5280,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>40482</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4521,16 +5310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145256</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4560,7 +5349,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10729912" y="1233487"/>
+              <a:off x="8527256" y="5174456"/>
               <a:ext cx="1828800" cy="2016919"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4593,16 +5382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>669131</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169068</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30957</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473868</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4632,7 +5421,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12861131" y="1233488"/>
+              <a:off x="10837068" y="4912519"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4666,20 +5455,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114005</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411267</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4702,8 +5491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="762001"/>
-          <a:ext cx="3848100" cy="2019004"/>
+          <a:off x="5114926" y="2752726"/>
+          <a:ext cx="3430691" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4714,16 +5503,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>188965</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>372000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>118060</xdr:rowOff>
+      <xdr:rowOff>164080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4746,8 +5535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="760465"/>
-          <a:ext cx="3495675" cy="1834095"/>
+          <a:off x="5076825" y="408040"/>
+          <a:ext cx="3420000" cy="1794390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4759,15 +5548,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>134289</xdr:rowOff>
+      <xdr:rowOff>143814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22810</xdr:rowOff>
+      <xdr:colOff>325540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4790,8 +5579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523874" y="3563289"/>
-          <a:ext cx="3781425" cy="1984021"/>
+          <a:off x="457199" y="2801289"/>
+          <a:ext cx="3430691" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4802,16 +5591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148985</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22513</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354117</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4834,8 +5623,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734050" y="3577985"/>
-          <a:ext cx="3752850" cy="1969028"/>
+          <a:off x="485775" y="796685"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>354115</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867776" y="428625"/>
+          <a:ext cx="3430689" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382690</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096376" y="2752725"/>
+          <a:ext cx="3430689" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4848,7 +5725,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43182.704177083331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43183.538016666665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:D117" sheet="Data"/>
   </cacheSource>
@@ -5000,11 +5877,11 @@
         <s v="seisme"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nb article" numFmtId="0">
+    <cacheField name="Nb article" numFmtId="166">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="626"/>
     </cacheField>
-    <cacheField name="Nb mort" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="155" maxValue="129745775086"/>
+    <cacheField name="Nb mort" numFmtId="166">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9629"/>
     </cacheField>
     <cacheField name="Trimestres" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
@@ -5074,7 +5951,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="65"/>
-    <n v="1574"/>
+    <n v="1353"/>
   </r>
   <r>
     <x v="3"/>
@@ -5086,7 +5963,7 @@
     <x v="4"/>
     <x v="4"/>
     <n v="11"/>
-    <n v="4310"/>
+    <n v="4490"/>
   </r>
   <r>
     <x v="5"/>
@@ -5110,7 +5987,7 @@
     <x v="8"/>
     <x v="2"/>
     <n v="87"/>
-    <n v="22478"/>
+    <n v="399"/>
   </r>
   <r>
     <x v="9"/>
@@ -5122,7 +5999,7 @@
     <x v="10"/>
     <x v="4"/>
     <n v="31"/>
-    <n v="1397"/>
+    <n v="711"/>
   </r>
   <r>
     <x v="11"/>
@@ -5146,7 +6023,7 @@
     <x v="14"/>
     <x v="2"/>
     <n v="57"/>
-    <n v="2085"/>
+    <n v="452"/>
   </r>
   <r>
     <x v="15"/>
@@ -5158,7 +6035,7 @@
     <x v="16"/>
     <x v="4"/>
     <n v="15"/>
-    <n v="746"/>
+    <n v="198"/>
   </r>
   <r>
     <x v="17"/>
@@ -5182,7 +6059,7 @@
     <x v="20"/>
     <x v="2"/>
     <n v="44"/>
-    <n v="2976"/>
+    <n v="583"/>
   </r>
   <r>
     <x v="21"/>
@@ -5194,7 +6071,7 @@
     <x v="22"/>
     <x v="4"/>
     <n v="7"/>
-    <n v="424575"/>
+    <n v="1414"/>
   </r>
   <r>
     <x v="23"/>
@@ -5206,115 +6083,115 @@
     <x v="24"/>
     <x v="0"/>
     <n v="5"/>
-    <n v="1815"/>
+    <n v="1780"/>
   </r>
   <r>
     <x v="25"/>
     <x v="1"/>
     <n v="31"/>
-    <n v="7054"/>
+    <n v="1267"/>
   </r>
   <r>
     <x v="26"/>
     <x v="2"/>
     <n v="59"/>
-    <n v="211707"/>
+    <n v="559"/>
   </r>
   <r>
     <x v="27"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="40999"/>
+    <m/>
   </r>
   <r>
     <x v="28"/>
     <x v="4"/>
     <n v="23"/>
-    <n v="16591011"/>
+    <n v="684"/>
   </r>
   <r>
     <x v="29"/>
     <x v="5"/>
     <n v="4"/>
-    <n v="1338"/>
+    <n v="15"/>
   </r>
   <r>
     <x v="30"/>
     <x v="0"/>
     <n v="47"/>
-    <n v="14496"/>
+    <n v="823"/>
   </r>
   <r>
     <x v="31"/>
     <x v="1"/>
     <n v="32"/>
-    <n v="815394642"/>
+    <n v="2946"/>
   </r>
   <r>
     <x v="32"/>
     <x v="2"/>
     <n v="194"/>
-    <n v="24975667531"/>
+    <n v="913"/>
   </r>
   <r>
     <x v="33"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="6579"/>
+    <n v="9629"/>
   </r>
   <r>
     <x v="34"/>
     <x v="4"/>
     <n v="7"/>
-    <n v="788"/>
+    <n v="182"/>
   </r>
   <r>
     <x v="35"/>
     <x v="5"/>
     <n v="18"/>
-    <n v="19769"/>
+    <n v="828"/>
   </r>
   <r>
     <x v="36"/>
     <x v="0"/>
     <n v="17"/>
-    <n v="5672"/>
+    <n v="1258"/>
   </r>
   <r>
     <x v="37"/>
     <x v="1"/>
     <n v="37"/>
-    <n v="5320"/>
+    <n v="1855"/>
   </r>
   <r>
     <x v="38"/>
     <x v="2"/>
     <n v="27"/>
-    <n v="2773"/>
+    <n v="580"/>
   </r>
   <r>
     <x v="39"/>
     <x v="3"/>
     <n v="4"/>
-    <n v="1208"/>
+    <n v="1158"/>
   </r>
   <r>
     <x v="40"/>
     <x v="4"/>
     <n v="8"/>
-    <n v="155"/>
+    <n v="82"/>
   </r>
   <r>
     <x v="41"/>
     <x v="5"/>
     <n v="38"/>
-    <n v="78498291"/>
+    <n v="2519"/>
   </r>
   <r>
     <x v="42"/>
     <x v="0"/>
     <n v="6"/>
-    <n v="1673"/>
+    <n v="1491"/>
   </r>
   <r>
     <x v="43"/>
@@ -5326,7 +6203,7 @@
     <x v="44"/>
     <x v="2"/>
     <n v="85"/>
-    <n v="53447"/>
+    <n v="1512"/>
   </r>
   <r>
     <x v="45"/>
@@ -5338,19 +6215,19 @@
     <x v="46"/>
     <x v="4"/>
     <n v="13"/>
-    <n v="684"/>
+    <n v="440"/>
   </r>
   <r>
     <x v="47"/>
     <x v="5"/>
     <n v="4"/>
-    <n v="392"/>
+    <n v="70"/>
   </r>
   <r>
     <x v="48"/>
     <x v="0"/>
     <n v="321"/>
-    <n v="379279393"/>
+    <n v="2867"/>
   </r>
   <r>
     <x v="49"/>
@@ -5362,19 +6239,19 @@
     <x v="50"/>
     <x v="2"/>
     <n v="117"/>
-    <n v="3590"/>
+    <n v="1048"/>
   </r>
   <r>
     <x v="51"/>
     <x v="3"/>
     <m/>
-    <n v="8805"/>
+    <m/>
   </r>
   <r>
     <x v="52"/>
     <x v="4"/>
     <n v="73"/>
-    <n v="5216"/>
+    <n v="1741"/>
   </r>
   <r>
     <x v="53"/>
@@ -5386,7 +6263,7 @@
     <x v="54"/>
     <x v="0"/>
     <n v="78"/>
-    <n v="5475"/>
+    <n v="1974"/>
   </r>
   <r>
     <x v="55"/>
@@ -5398,187 +6275,187 @@
     <x v="56"/>
     <x v="2"/>
     <n v="57"/>
-    <n v="87491"/>
+    <n v="869"/>
   </r>
   <r>
     <x v="57"/>
     <x v="3"/>
     <n v="2"/>
-    <m/>
+    <n v="39"/>
   </r>
   <r>
     <x v="58"/>
     <x v="4"/>
     <n v="95"/>
-    <n v="98943"/>
+    <n v="1153"/>
   </r>
   <r>
     <x v="59"/>
     <x v="5"/>
     <m/>
-    <n v="129745775086"/>
+    <m/>
   </r>
   <r>
     <x v="60"/>
     <x v="0"/>
     <n v="213"/>
-    <n v="857697771"/>
+    <n v="1426"/>
   </r>
   <r>
     <x v="61"/>
     <x v="1"/>
     <n v="161"/>
-    <n v="9077577"/>
+    <n v="1275"/>
   </r>
   <r>
     <x v="62"/>
     <x v="2"/>
     <n v="166"/>
-    <n v="3161"/>
+    <n v="1133"/>
   </r>
   <r>
     <x v="63"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="1610"/>
+    <n v="30"/>
   </r>
   <r>
     <x v="64"/>
     <x v="4"/>
     <n v="70"/>
-    <n v="353741"/>
+    <n v="1603"/>
   </r>
   <r>
     <x v="65"/>
     <x v="5"/>
     <n v="38"/>
-    <m/>
+    <n v="60"/>
   </r>
   <r>
     <x v="66"/>
     <x v="0"/>
     <m/>
-    <n v="3742269"/>
+    <n v="1081"/>
   </r>
   <r>
     <x v="67"/>
     <x v="1"/>
     <n v="316"/>
-    <n v="104432"/>
+    <n v="1241"/>
   </r>
   <r>
     <x v="68"/>
     <x v="2"/>
     <n v="155"/>
-    <n v="114176"/>
+    <n v="1313"/>
   </r>
   <r>
     <x v="69"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="576"/>
+    <n v="316"/>
   </r>
   <r>
     <x v="70"/>
     <x v="4"/>
     <n v="125"/>
-    <n v="130328051"/>
+    <n v="1454"/>
   </r>
   <r>
     <x v="71"/>
     <x v="5"/>
     <n v="319"/>
-    <n v="17423743520"/>
+    <n v="1821"/>
   </r>
   <r>
     <x v="72"/>
     <x v="0"/>
     <n v="203"/>
-    <n v="261100"/>
+    <n v="911"/>
   </r>
   <r>
     <x v="73"/>
     <x v="1"/>
     <n v="68"/>
-    <n v="88202"/>
+    <n v="1505"/>
   </r>
   <r>
     <x v="74"/>
     <x v="2"/>
     <n v="326"/>
-    <n v="1980733"/>
+    <n v="1073"/>
   </r>
   <r>
     <x v="75"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="1337"/>
+    <n v="24"/>
   </r>
   <r>
     <x v="76"/>
     <x v="4"/>
     <n v="137"/>
-    <n v="10838"/>
+    <n v="1086"/>
   </r>
   <r>
     <x v="77"/>
     <x v="5"/>
     <n v="140"/>
-    <n v="3923166"/>
+    <n v="1175"/>
   </r>
   <r>
     <x v="78"/>
     <x v="0"/>
     <n v="208"/>
-    <n v="474032"/>
+    <n v="1566"/>
   </r>
   <r>
     <x v="79"/>
     <x v="1"/>
     <n v="121"/>
-    <n v="195123"/>
+    <n v="1417"/>
   </r>
   <r>
     <x v="80"/>
     <x v="2"/>
     <n v="115"/>
-    <n v="5484"/>
+    <n v="1516"/>
   </r>
   <r>
     <x v="81"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="562"/>
+    <n v="202"/>
   </r>
   <r>
     <x v="82"/>
     <x v="4"/>
     <n v="413"/>
-    <n v="11788183"/>
+    <n v="2290"/>
   </r>
   <r>
     <x v="83"/>
     <x v="5"/>
     <n v="122"/>
-    <n v="7075026"/>
+    <n v="777"/>
   </r>
   <r>
     <x v="84"/>
     <x v="0"/>
     <n v="246"/>
-    <n v="7189"/>
+    <n v="762"/>
   </r>
   <r>
     <x v="85"/>
     <x v="1"/>
     <n v="102"/>
-    <n v="70645721136"/>
+    <n v="1280"/>
   </r>
   <r>
     <x v="86"/>
     <x v="2"/>
     <n v="97"/>
-    <n v="3044"/>
+    <n v="632"/>
   </r>
   <r>
     <x v="87"/>
@@ -5590,31 +6467,31 @@
     <x v="88"/>
     <x v="4"/>
     <n v="200"/>
-    <n v="665062"/>
+    <n v="1138"/>
   </r>
   <r>
     <x v="89"/>
     <x v="5"/>
     <n v="64"/>
-    <n v="68217"/>
+    <n v="692"/>
   </r>
   <r>
     <x v="90"/>
     <x v="0"/>
     <n v="293"/>
-    <n v="81235"/>
+    <n v="646"/>
   </r>
   <r>
     <x v="91"/>
     <x v="1"/>
     <n v="80"/>
-    <n v="1251567"/>
+    <n v="774"/>
   </r>
   <r>
     <x v="92"/>
     <x v="2"/>
     <n v="100"/>
-    <n v="47136"/>
+    <n v="374"/>
   </r>
   <r>
     <x v="93"/>
@@ -5626,31 +6503,31 @@
     <x v="94"/>
     <x v="4"/>
     <n v="181"/>
-    <n v="194989"/>
+    <n v="2078"/>
   </r>
   <r>
     <x v="95"/>
     <x v="5"/>
     <n v="67"/>
-    <n v="576831"/>
+    <n v="1298"/>
   </r>
   <r>
     <x v="96"/>
     <x v="0"/>
     <n v="233"/>
-    <n v="429641648"/>
+    <n v="1489"/>
   </r>
   <r>
     <x v="97"/>
     <x v="1"/>
     <n v="164"/>
-    <n v="218685"/>
+    <n v="1951"/>
   </r>
   <r>
     <x v="98"/>
     <x v="2"/>
     <n v="177"/>
-    <n v="14090164"/>
+    <n v="582"/>
   </r>
   <r>
     <x v="99"/>
@@ -5662,31 +6539,31 @@
     <x v="100"/>
     <x v="4"/>
     <n v="76"/>
-    <n v="432318"/>
+    <n v="982"/>
   </r>
   <r>
     <x v="101"/>
     <x v="5"/>
     <n v="161"/>
-    <m/>
+    <n v="1082"/>
   </r>
   <r>
     <x v="102"/>
     <x v="0"/>
     <n v="538"/>
-    <n v="8159045"/>
+    <n v="1222"/>
   </r>
   <r>
     <x v="103"/>
     <x v="1"/>
     <n v="117"/>
-    <n v="345437798"/>
+    <n v="1242"/>
   </r>
   <r>
     <x v="104"/>
     <x v="2"/>
     <n v="626"/>
-    <n v="1299847"/>
+    <n v="738"/>
   </r>
   <r>
     <x v="105"/>
@@ -5698,31 +6575,31 @@
     <x v="106"/>
     <x v="4"/>
     <n v="113"/>
-    <n v="3618"/>
+    <n v="1332"/>
   </r>
   <r>
     <x v="107"/>
     <x v="5"/>
     <n v="106"/>
-    <n v="8382605"/>
+    <n v="1433"/>
   </r>
   <r>
     <x v="108"/>
     <x v="0"/>
     <n v="48"/>
-    <n v="5346"/>
+    <n v="379"/>
   </r>
   <r>
     <x v="109"/>
     <x v="1"/>
     <n v="23"/>
-    <n v="99969"/>
+    <n v="448"/>
   </r>
   <r>
     <x v="110"/>
     <x v="2"/>
     <n v="13"/>
-    <n v="3179"/>
+    <n v="1731"/>
   </r>
   <r>
     <x v="111"/>
@@ -5734,19 +6611,19 @@
     <x v="112"/>
     <x v="4"/>
     <n v="3"/>
-    <n v="978"/>
+    <n v="291"/>
   </r>
   <r>
     <x v="113"/>
     <x v="5"/>
     <n v="9"/>
-    <n v="2505"/>
+    <n v="660"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="L4:S25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="165" showAll="0"/>
@@ -5957,19 +6834,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13" series="1">
+    <chartFormat chart="2" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5981,7 +6846,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="14" series="1">
+    <chartFormat chart="2" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5993,7 +6858,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="15" series="1">
+    <chartFormat chart="2" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6005,7 +6870,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="16" series="1">
+    <chartFormat chart="2" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6017,7 +6882,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="17" series="1">
+    <chartFormat chart="2" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -6025,6 +6890,18 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -6040,7 +6917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A4:H25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="165" showAll="0">
@@ -6206,10 +7083,10 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="5" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="54">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6427,8 +7304,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Thème" cache="Segment_Thème" caption="Thème" rowHeight="241300"/>
-  <slicer name="Années" cache="Segment_Années" caption="Années" rowHeight="241300"/>
+  <slicer name="Thème" cache="Segment_Thème" caption="Thème" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="Années" cache="Segment_Années" caption="Années" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -6698,7 +7575,7 @@
   <dimension ref="A2:T25"/>
   <sheetViews>
     <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:S24"/>
+      <selection activeCell="M31" sqref="M30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6713,9 +7590,11 @@
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6820,15 +7699,15 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
-        <v>1574</v>
+        <v>1353</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>4310</v>
+        <v>4490</v>
       </c>
       <c r="S6" s="3">
-        <v>5884</v>
+        <v>5843</v>
       </c>
       <c r="T6" s="3"/>
     </row>
@@ -6863,15 +7742,15 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
-        <v>22478</v>
+        <v>399</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3">
-        <v>1397</v>
+        <v>711</v>
       </c>
       <c r="S7" s="3">
-        <v>23875</v>
+        <v>1110</v>
       </c>
       <c r="T7" s="3"/>
     </row>
@@ -6906,15 +7785,15 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
-        <v>2085</v>
+        <v>452</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>746</v>
+        <v>198</v>
       </c>
       <c r="S8" s="3">
-        <v>2831</v>
+        <v>650</v>
       </c>
       <c r="T8" s="3"/>
     </row>
@@ -6949,15 +7828,15 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
-        <v>2976</v>
+        <v>583</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3">
-        <v>424575</v>
+        <v>1414</v>
       </c>
       <c r="S9" s="3">
-        <v>427551</v>
+        <v>1997</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -6990,25 +7869,23 @@
         <v>7</v>
       </c>
       <c r="M10" s="3">
-        <v>1815</v>
+        <v>1780</v>
       </c>
       <c r="N10" s="3">
-        <v>7054</v>
+        <v>1267</v>
       </c>
       <c r="O10" s="3">
-        <v>211707</v>
+        <v>559</v>
       </c>
       <c r="P10" s="3">
-        <v>1338</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>40999</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>16591011</v>
+        <v>684</v>
       </c>
       <c r="S10" s="3">
-        <v>16853924</v>
+        <v>4305</v>
       </c>
       <c r="T10" s="3"/>
     </row>
@@ -7041,25 +7918,25 @@
         <v>8</v>
       </c>
       <c r="M11" s="3">
-        <v>14496</v>
+        <v>823</v>
       </c>
       <c r="N11" s="3">
-        <v>815394642</v>
+        <v>2946</v>
       </c>
       <c r="O11" s="3">
-        <v>24975667531</v>
+        <v>913</v>
       </c>
       <c r="P11" s="3">
-        <v>19769</v>
+        <v>828</v>
       </c>
       <c r="Q11" s="3">
-        <v>6579</v>
+        <v>9629</v>
       </c>
       <c r="R11" s="3">
-        <v>788</v>
+        <v>182</v>
       </c>
       <c r="S11" s="3">
-        <v>25791103805</v>
+        <v>15321</v>
       </c>
       <c r="T11" s="3"/>
     </row>
@@ -7092,25 +7969,25 @@
         <v>9</v>
       </c>
       <c r="M12" s="3">
-        <v>5672</v>
+        <v>1258</v>
       </c>
       <c r="N12" s="3">
-        <v>5320</v>
+        <v>1855</v>
       </c>
       <c r="O12" s="3">
-        <v>2773</v>
+        <v>580</v>
       </c>
       <c r="P12" s="3">
-        <v>78498291</v>
+        <v>2519</v>
       </c>
       <c r="Q12" s="3">
-        <v>1208</v>
+        <v>1158</v>
       </c>
       <c r="R12" s="3">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="S12" s="3">
-        <v>78513419</v>
+        <v>7452</v>
       </c>
       <c r="T12" s="3"/>
     </row>
@@ -7143,21 +8020,21 @@
         <v>10</v>
       </c>
       <c r="M13" s="3">
-        <v>1673</v>
+        <v>1491</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>53447</v>
+        <v>1512</v>
       </c>
       <c r="P13" s="3">
-        <v>392</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3">
-        <v>684</v>
+        <v>440</v>
       </c>
       <c r="S13" s="3">
-        <v>56196</v>
+        <v>3513</v>
       </c>
       <c r="T13" s="3"/>
     </row>
@@ -7190,21 +8067,19 @@
         <v>11</v>
       </c>
       <c r="M14" s="3">
-        <v>379279393</v>
+        <v>2867</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3">
-        <v>3590</v>
+        <v>1048</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>8805</v>
-      </c>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>5216</v>
+        <v>1741</v>
       </c>
       <c r="S14" s="3">
-        <v>379297004</v>
+        <v>5656</v>
       </c>
       <c r="T14" s="3"/>
     </row>
@@ -7237,21 +8112,21 @@
         <v>12</v>
       </c>
       <c r="M15" s="3">
-        <v>5475</v>
+        <v>1974</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3">
-        <v>87491</v>
-      </c>
-      <c r="P15" s="3">
-        <v>129745775086</v>
-      </c>
-      <c r="Q15" s="3"/>
+        <v>869</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
+        <v>39</v>
+      </c>
       <c r="R15" s="3">
-        <v>98943</v>
+        <v>1153</v>
       </c>
       <c r="S15" s="3">
-        <v>129745966995</v>
+        <v>4035</v>
       </c>
       <c r="T15" s="3"/>
     </row>
@@ -7284,23 +8159,25 @@
         <v>13</v>
       </c>
       <c r="M16" s="3">
-        <v>857697771</v>
+        <v>1426</v>
       </c>
       <c r="N16" s="3">
-        <v>9077577</v>
+        <v>1275</v>
       </c>
       <c r="O16" s="3">
-        <v>3161</v>
-      </c>
-      <c r="P16" s="3"/>
+        <v>1133</v>
+      </c>
+      <c r="P16" s="3">
+        <v>60</v>
+      </c>
       <c r="Q16" s="3">
-        <v>1610</v>
+        <v>30</v>
       </c>
       <c r="R16" s="3">
-        <v>353741</v>
+        <v>1603</v>
       </c>
       <c r="S16" s="3">
-        <v>867133860</v>
+        <v>5527</v>
       </c>
       <c r="T16" s="3"/>
     </row>
@@ -7333,25 +8210,25 @@
         <v>14</v>
       </c>
       <c r="M17" s="3">
-        <v>3742269</v>
+        <v>1081</v>
       </c>
       <c r="N17" s="3">
-        <v>104432</v>
+        <v>1241</v>
       </c>
       <c r="O17" s="3">
-        <v>114176</v>
+        <v>1313</v>
       </c>
       <c r="P17" s="3">
-        <v>17423743520</v>
+        <v>1821</v>
       </c>
       <c r="Q17" s="3">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="R17" s="3">
-        <v>130328051</v>
+        <v>1454</v>
       </c>
       <c r="S17" s="3">
-        <v>17558033024</v>
+        <v>7226</v>
       </c>
       <c r="T17" s="3"/>
     </row>
@@ -7384,25 +8261,25 @@
         <v>15</v>
       </c>
       <c r="M18" s="3">
-        <v>261100</v>
+        <v>911</v>
       </c>
       <c r="N18" s="3">
-        <v>88202</v>
+        <v>1505</v>
       </c>
       <c r="O18" s="3">
-        <v>1980733</v>
+        <v>1073</v>
       </c>
       <c r="P18" s="3">
-        <v>3923166</v>
+        <v>1175</v>
       </c>
       <c r="Q18" s="3">
-        <v>1337</v>
+        <v>24</v>
       </c>
       <c r="R18" s="3">
-        <v>10838</v>
+        <v>1086</v>
       </c>
       <c r="S18" s="3">
-        <v>6265376</v>
+        <v>5774</v>
       </c>
       <c r="T18" s="3"/>
     </row>
@@ -7435,25 +8312,25 @@
         <v>16</v>
       </c>
       <c r="M19" s="3">
-        <v>474032</v>
+        <v>1566</v>
       </c>
       <c r="N19" s="3">
-        <v>195123</v>
+        <v>1417</v>
       </c>
       <c r="O19" s="3">
-        <v>5484</v>
+        <v>1516</v>
       </c>
       <c r="P19" s="3">
-        <v>7075026</v>
+        <v>777</v>
       </c>
       <c r="Q19" s="3">
-        <v>562</v>
+        <v>202</v>
       </c>
       <c r="R19" s="3">
-        <v>11788183</v>
+        <v>2290</v>
       </c>
       <c r="S19" s="3">
-        <v>19538410</v>
+        <v>7768</v>
       </c>
       <c r="T19" s="3"/>
     </row>
@@ -7486,23 +8363,23 @@
         <v>17</v>
       </c>
       <c r="M20" s="3">
-        <v>7189</v>
+        <v>762</v>
       </c>
       <c r="N20" s="3">
-        <v>70645721136</v>
+        <v>1280</v>
       </c>
       <c r="O20" s="3">
-        <v>3044</v>
+        <v>632</v>
       </c>
       <c r="P20" s="3">
-        <v>68217</v>
+        <v>692</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>665062</v>
+        <v>1138</v>
       </c>
       <c r="S20" s="3">
-        <v>70646464648</v>
+        <v>4504</v>
       </c>
       <c r="T20" s="3"/>
     </row>
@@ -7535,23 +8412,23 @@
         <v>18</v>
       </c>
       <c r="M21" s="3">
-        <v>81235</v>
+        <v>646</v>
       </c>
       <c r="N21" s="3">
-        <v>1251567</v>
+        <v>774</v>
       </c>
       <c r="O21" s="3">
-        <v>47136</v>
+        <v>374</v>
       </c>
       <c r="P21" s="3">
-        <v>576831</v>
+        <v>1298</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3">
-        <v>194989</v>
+        <v>2078</v>
       </c>
       <c r="S21" s="3">
-        <v>2151758</v>
+        <v>5170</v>
       </c>
       <c r="T21" s="3"/>
     </row>
@@ -7584,21 +8461,23 @@
         <v>19</v>
       </c>
       <c r="M22" s="3">
-        <v>429641648</v>
+        <v>1489</v>
       </c>
       <c r="N22" s="3">
-        <v>218685</v>
+        <v>1951</v>
       </c>
       <c r="O22" s="3">
-        <v>14090164</v>
-      </c>
-      <c r="P22" s="3"/>
+        <v>582</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1082</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>432318</v>
+        <v>982</v>
       </c>
       <c r="S22" s="3">
-        <v>444382815</v>
+        <v>6086</v>
       </c>
       <c r="T22" s="3"/>
     </row>
@@ -7631,23 +8510,23 @@
         <v>20</v>
       </c>
       <c r="M23" s="3">
-        <v>8159045</v>
+        <v>1222</v>
       </c>
       <c r="N23" s="3">
-        <v>345437798</v>
+        <v>1242</v>
       </c>
       <c r="O23" s="3">
-        <v>1299847</v>
+        <v>738</v>
       </c>
       <c r="P23" s="3">
-        <v>8382605</v>
+        <v>1433</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3">
-        <v>3618</v>
+        <v>1332</v>
       </c>
       <c r="S23" s="3">
-        <v>363282913</v>
+        <v>5967</v>
       </c>
       <c r="T23" s="3"/>
     </row>
@@ -7680,23 +8559,23 @@
         <v>21</v>
       </c>
       <c r="M24" s="3">
-        <v>5346</v>
+        <v>379</v>
       </c>
       <c r="N24" s="3">
-        <v>99969</v>
+        <v>448</v>
       </c>
       <c r="O24" s="3">
-        <v>3179</v>
+        <v>1731</v>
       </c>
       <c r="P24" s="3">
-        <v>2505</v>
+        <v>660</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>978</v>
+        <v>291</v>
       </c>
       <c r="S24" s="3">
-        <v>111977</v>
+        <v>3509</v>
       </c>
       <c r="T24" s="3"/>
     </row>
@@ -7729,25 +8608,25 @@
         <v>2</v>
       </c>
       <c r="M25" s="3">
-        <v>1679378159</v>
+        <v>19675</v>
       </c>
       <c r="N25" s="3">
-        <v>71817601505</v>
+        <v>17201</v>
       </c>
       <c r="O25" s="3">
-        <v>24993602576</v>
+        <v>17360</v>
       </c>
       <c r="P25" s="3">
-        <v>147268066746</v>
+        <v>12430</v>
       </c>
       <c r="Q25" s="3">
-        <v>61676</v>
+        <v>11398</v>
       </c>
       <c r="R25" s="3">
-        <v>160905603</v>
+        <v>23349</v>
       </c>
       <c r="S25" s="3">
-        <v>245919616265</v>
+        <v>101413</v>
       </c>
       <c r="T25" s="3"/>
     </row>
@@ -7760,15 +8639,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D117"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7800,6 +8679,8 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
@@ -7810,6 +8691,8 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
@@ -7820,11 +8703,11 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>65</v>
       </c>
-      <c r="D6">
-        <v>1574</v>
+      <c r="D6" s="7">
+        <v>1353</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7836,6 +8719,8 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
@@ -7846,11 +8731,11 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>4310</v>
+      <c r="D8" s="7">
+        <v>4490</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -7862,6 +8747,8 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
@@ -7872,6 +8759,8 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -7882,6 +8771,8 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
@@ -7892,11 +8783,11 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>87</v>
       </c>
-      <c r="D12">
-        <v>22478</v>
+      <c r="D12" s="7">
+        <v>399</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7908,6 +8799,8 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
@@ -7918,11 +8811,11 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>31</v>
       </c>
-      <c r="D14">
-        <v>1397</v>
+      <c r="D14" s="7">
+        <v>711</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -7934,6 +8827,8 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -7944,6 +8839,8 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -7954,6 +8851,8 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -7964,11 +8863,11 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>57</v>
       </c>
-      <c r="D18">
-        <v>2085</v>
+      <c r="D18" s="7">
+        <v>452</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -7980,6 +8879,8 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -7990,11 +8891,11 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>15</v>
       </c>
-      <c r="D20">
-        <v>746</v>
+      <c r="D20" s="7">
+        <v>198</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -8006,6 +8907,8 @@
       <c r="B21" t="s">
         <v>29</v>
       </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -8016,6 +8919,8 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8025,9 +8930,10 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>9</v>
       </c>
+      <c r="D23" s="7"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,11 +8943,11 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>44</v>
       </c>
-      <c r="D24">
-        <v>2976</v>
+      <c r="D24" s="7">
+        <v>583</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -8052,6 +8958,8 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8061,11 +8969,11 @@
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>424575</v>
+      <c r="D26" s="7">
+        <v>1414</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -8076,9 +8984,10 @@
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
+      <c r="D27" s="7"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8088,11 +8997,11 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>1815</v>
+      <c r="D28" s="7">
+        <v>1780</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -8103,11 +9012,11 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>31</v>
       </c>
-      <c r="D29">
-        <v>7054</v>
+      <c r="D29" s="7">
+        <v>1267</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -8118,11 +9027,11 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>59</v>
       </c>
-      <c r="D30">
-        <v>211707</v>
+      <c r="D30" s="7">
+        <v>559</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -8133,12 +9042,10 @@
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>40999</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8148,11 +9055,11 @@
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>23</v>
       </c>
-      <c r="D32">
-        <v>16591011</v>
+      <c r="D32" s="7">
+        <v>684</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -8163,11 +9070,11 @@
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>1338</v>
+      <c r="D33" s="7">
+        <v>15</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -8178,11 +9085,11 @@
       <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>47</v>
       </c>
-      <c r="D34">
-        <v>14496</v>
+      <c r="D34" s="7">
+        <v>823</v>
       </c>
       <c r="F34" s="5"/>
     </row>
@@ -8193,11 +9100,11 @@
       <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>32</v>
       </c>
-      <c r="D35">
-        <v>815394642</v>
+      <c r="D35" s="7">
+        <v>2946</v>
       </c>
       <c r="F35" s="5"/>
     </row>
@@ -8208,11 +9115,11 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>194</v>
       </c>
-      <c r="D36">
-        <v>24975667531</v>
+      <c r="D36" s="7">
+        <v>913</v>
       </c>
       <c r="F36" s="5"/>
     </row>
@@ -8223,11 +9130,11 @@
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>6579</v>
+      <c r="D37" s="7">
+        <v>9629</v>
       </c>
       <c r="F37" s="5"/>
     </row>
@@ -8238,11 +9145,11 @@
       <c r="B38" t="s">
         <v>28</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>788</v>
+      <c r="D38" s="7">
+        <v>182</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -8253,11 +9160,11 @@
       <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>18</v>
       </c>
-      <c r="D39">
-        <v>19769</v>
+      <c r="D39" s="7">
+        <v>828</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -8268,11 +9175,11 @@
       <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>17</v>
       </c>
-      <c r="D40">
-        <v>5672</v>
+      <c r="D40" s="7">
+        <v>1258</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -8283,11 +9190,11 @@
       <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>37</v>
       </c>
-      <c r="D41">
-        <v>5320</v>
+      <c r="D41" s="7">
+        <v>1855</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -8298,11 +9205,11 @@
       <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>27</v>
       </c>
-      <c r="D42">
-        <v>2773</v>
+      <c r="D42" s="7">
+        <v>580</v>
       </c>
       <c r="F42" s="5"/>
     </row>
@@ -8313,11 +9220,11 @@
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>1208</v>
+      <c r="D43" s="7">
+        <v>1158</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -8328,11 +9235,11 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="7">
         <v>8</v>
       </c>
-      <c r="D44">
-        <v>155</v>
+      <c r="D44" s="7">
+        <v>82</v>
       </c>
       <c r="F44" s="5"/>
     </row>
@@ -8343,11 +9250,11 @@
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <v>38</v>
       </c>
-      <c r="D45">
-        <v>78498291</v>
+      <c r="D45" s="7">
+        <v>2519</v>
       </c>
       <c r="F45" s="5"/>
     </row>
@@ -8358,11 +9265,11 @@
       <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="7">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>1673</v>
+      <c r="D46" s="7">
+        <v>1491</v>
       </c>
       <c r="F46" s="5"/>
     </row>
@@ -8373,6 +9280,8 @@
       <c r="B47" t="s">
         <v>25</v>
       </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8382,11 +9291,11 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="7">
         <v>85</v>
       </c>
-      <c r="D48">
-        <v>53447</v>
+      <c r="D48" s="7">
+        <v>1512</v>
       </c>
       <c r="F48" s="5"/>
     </row>
@@ -8397,6 +9306,8 @@
       <c r="B49" t="s">
         <v>27</v>
       </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8406,11 +9317,11 @@
       <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="7">
         <v>13</v>
       </c>
-      <c r="D50">
-        <v>684</v>
+      <c r="D50" s="7">
+        <v>440</v>
       </c>
       <c r="F50" s="5"/>
     </row>
@@ -8421,11 +9332,11 @@
       <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>392</v>
+      <c r="D51" s="7">
+        <v>70</v>
       </c>
       <c r="F51" s="5"/>
     </row>
@@ -8436,11 +9347,11 @@
       <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="7">
         <v>321</v>
       </c>
-      <c r="D52">
-        <v>379279393</v>
+      <c r="D52" s="7">
+        <v>2867</v>
       </c>
       <c r="F52" s="5"/>
     </row>
@@ -8451,6 +9362,8 @@
       <c r="B53" t="s">
         <v>25</v>
       </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8460,11 +9373,11 @@
       <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>117</v>
       </c>
-      <c r="D54">
-        <v>3590</v>
+      <c r="D54" s="7">
+        <v>1048</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -8475,9 +9388,8 @@
       <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="D55">
-        <v>8805</v>
-      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8487,11 +9399,11 @@
       <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="7">
         <v>73</v>
       </c>
-      <c r="D56">
-        <v>5216</v>
+      <c r="D56" s="7">
+        <v>1741</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -8502,6 +9414,8 @@
       <c r="B57" t="s">
         <v>29</v>
       </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8511,11 +9425,11 @@
       <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="7">
         <v>78</v>
       </c>
-      <c r="D58">
-        <v>5475</v>
+      <c r="D58" s="7">
+        <v>1974</v>
       </c>
       <c r="F58" s="5"/>
     </row>
@@ -8526,6 +9440,8 @@
       <c r="B59" t="s">
         <v>25</v>
       </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,11 +9451,11 @@
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="7">
         <v>57</v>
       </c>
-      <c r="D60">
-        <v>87491</v>
+      <c r="D60" s="7">
+        <v>869</v>
       </c>
       <c r="F60" s="5"/>
     </row>
@@ -8550,8 +9466,11 @@
       <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>2</v>
+      </c>
+      <c r="D61" s="7">
+        <v>39</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -8562,11 +9481,11 @@
       <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="7">
         <v>95</v>
       </c>
-      <c r="D62">
-        <v>98943</v>
+      <c r="D62" s="7">
+        <v>1153</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -8577,9 +9496,8 @@
       <c r="B63" t="s">
         <v>29</v>
       </c>
-      <c r="D63">
-        <v>129745775086</v>
-      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8589,11 +9507,11 @@
       <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="7">
         <v>213</v>
       </c>
-      <c r="D64">
-        <v>857697771</v>
+      <c r="D64" s="7">
+        <v>1426</v>
       </c>
       <c r="F64" s="5"/>
     </row>
@@ -8604,11 +9522,11 @@
       <c r="B65" t="s">
         <v>25</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="7">
         <v>161</v>
       </c>
-      <c r="D65">
-        <v>9077577</v>
+      <c r="D65" s="7">
+        <v>1275</v>
       </c>
       <c r="F65" s="5"/>
     </row>
@@ -8619,11 +9537,11 @@
       <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="7">
         <v>166</v>
       </c>
-      <c r="D66">
-        <v>3161</v>
+      <c r="D66" s="7">
+        <v>1133</v>
       </c>
       <c r="F66" s="5"/>
     </row>
@@ -8634,11 +9552,11 @@
       <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="7">
         <v>2</v>
       </c>
-      <c r="D67">
-        <v>1610</v>
+      <c r="D67" s="7">
+        <v>30</v>
       </c>
       <c r="F67" s="5"/>
     </row>
@@ -8649,11 +9567,11 @@
       <c r="B68" t="s">
         <v>28</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="7">
         <v>70</v>
       </c>
-      <c r="D68">
-        <v>353741</v>
+      <c r="D68" s="7">
+        <v>1603</v>
       </c>
       <c r="F68" s="5"/>
     </row>
@@ -8664,8 +9582,11 @@
       <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="7">
         <v>38</v>
+      </c>
+      <c r="D69" s="7">
+        <v>60</v>
       </c>
       <c r="F69" s="5"/>
     </row>
@@ -8676,8 +9597,9 @@
       <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="D70">
-        <v>3742269</v>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7">
+        <v>1081</v>
       </c>
       <c r="F70" s="5"/>
     </row>
@@ -8688,11 +9610,11 @@
       <c r="B71" t="s">
         <v>25</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>316</v>
       </c>
-      <c r="D71">
-        <v>104432</v>
+      <c r="D71" s="7">
+        <v>1241</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -8703,11 +9625,11 @@
       <c r="B72" t="s">
         <v>26</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="7">
         <v>155</v>
       </c>
-      <c r="D72">
-        <v>114176</v>
+      <c r="D72" s="7">
+        <v>1313</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -8718,11 +9640,11 @@
       <c r="B73" t="s">
         <v>27</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="7">
         <v>2</v>
       </c>
-      <c r="D73">
-        <v>576</v>
+      <c r="D73" s="7">
+        <v>316</v>
       </c>
       <c r="F73" s="5"/>
     </row>
@@ -8733,11 +9655,11 @@
       <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="7">
         <v>125</v>
       </c>
-      <c r="D74">
-        <v>130328051</v>
+      <c r="D74" s="7">
+        <v>1454</v>
       </c>
       <c r="F74" s="5"/>
     </row>
@@ -8748,11 +9670,11 @@
       <c r="B75" t="s">
         <v>29</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="7">
         <v>319</v>
       </c>
-      <c r="D75">
-        <v>17423743520</v>
+      <c r="D75" s="7">
+        <v>1821</v>
       </c>
       <c r="F75" s="5"/>
     </row>
@@ -8763,11 +9685,11 @@
       <c r="B76" t="s">
         <v>24</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="7">
         <v>203</v>
       </c>
-      <c r="D76">
-        <v>261100</v>
+      <c r="D76" s="7">
+        <v>911</v>
       </c>
       <c r="F76" s="5"/>
     </row>
@@ -8778,11 +9700,11 @@
       <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="7">
         <v>68</v>
       </c>
-      <c r="D77">
-        <v>88202</v>
+      <c r="D77" s="7">
+        <v>1505</v>
       </c>
       <c r="F77" s="5"/>
     </row>
@@ -8793,11 +9715,11 @@
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="7">
         <v>326</v>
       </c>
-      <c r="D78">
-        <v>1980733</v>
+      <c r="D78" s="7">
+        <v>1073</v>
       </c>
       <c r="F78" s="5"/>
     </row>
@@ -8808,11 +9730,11 @@
       <c r="B79" t="s">
         <v>27</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="7">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>1337</v>
+      <c r="D79" s="7">
+        <v>24</v>
       </c>
       <c r="F79" s="5"/>
     </row>
@@ -8823,11 +9745,11 @@
       <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="7">
         <v>137</v>
       </c>
-      <c r="D80">
-        <v>10838</v>
+      <c r="D80" s="7">
+        <v>1086</v>
       </c>
       <c r="F80" s="5"/>
     </row>
@@ -8838,11 +9760,11 @@
       <c r="B81" t="s">
         <v>29</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="7">
         <v>140</v>
       </c>
-      <c r="D81">
-        <v>3923166</v>
+      <c r="D81" s="7">
+        <v>1175</v>
       </c>
       <c r="F81" s="5"/>
     </row>
@@ -8853,11 +9775,11 @@
       <c r="B82" t="s">
         <v>24</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="7">
         <v>208</v>
       </c>
-      <c r="D82">
-        <v>474032</v>
+      <c r="D82" s="7">
+        <v>1566</v>
       </c>
       <c r="F82" s="5"/>
     </row>
@@ -8868,11 +9790,11 @@
       <c r="B83" t="s">
         <v>25</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="7">
         <v>121</v>
       </c>
-      <c r="D83">
-        <v>195123</v>
+      <c r="D83" s="7">
+        <v>1417</v>
       </c>
       <c r="F83" s="5"/>
     </row>
@@ -8883,11 +9805,11 @@
       <c r="B84" t="s">
         <v>26</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="7">
         <v>115</v>
       </c>
-      <c r="D84">
-        <v>5484</v>
+      <c r="D84" s="7">
+        <v>1516</v>
       </c>
       <c r="F84" s="5"/>
     </row>
@@ -8898,11 +9820,11 @@
       <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="7">
         <v>1</v>
       </c>
-      <c r="D85">
-        <v>562</v>
+      <c r="D85" s="7">
+        <v>202</v>
       </c>
       <c r="F85" s="5"/>
     </row>
@@ -8913,11 +9835,11 @@
       <c r="B86" t="s">
         <v>28</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="7">
         <v>413</v>
       </c>
-      <c r="D86">
-        <v>11788183</v>
+      <c r="D86" s="7">
+        <v>2290</v>
       </c>
       <c r="F86" s="5"/>
     </row>
@@ -8928,11 +9850,11 @@
       <c r="B87" t="s">
         <v>29</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="7">
         <v>122</v>
       </c>
-      <c r="D87">
-        <v>7075026</v>
+      <c r="D87" s="7">
+        <v>777</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -8943,11 +9865,11 @@
       <c r="B88" t="s">
         <v>24</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="7">
         <v>246</v>
       </c>
-      <c r="D88">
-        <v>7189</v>
+      <c r="D88" s="7">
+        <v>762</v>
       </c>
       <c r="F88" s="5"/>
     </row>
@@ -8958,11 +9880,11 @@
       <c r="B89" t="s">
         <v>25</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="7">
         <v>102</v>
       </c>
-      <c r="D89">
-        <v>70645721136</v>
+      <c r="D89" s="7">
+        <v>1280</v>
       </c>
       <c r="F89" s="5"/>
     </row>
@@ -8973,11 +9895,11 @@
       <c r="B90" t="s">
         <v>26</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="7">
         <v>97</v>
       </c>
-      <c r="D90">
-        <v>3044</v>
+      <c r="D90" s="7">
+        <v>632</v>
       </c>
       <c r="F90" s="5"/>
     </row>
@@ -8988,6 +9910,8 @@
       <c r="B91" t="s">
         <v>27</v>
       </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8997,11 +9921,11 @@
       <c r="B92" t="s">
         <v>28</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="7">
         <v>200</v>
       </c>
-      <c r="D92">
-        <v>665062</v>
+      <c r="D92" s="7">
+        <v>1138</v>
       </c>
       <c r="F92" s="5"/>
     </row>
@@ -9012,11 +9936,11 @@
       <c r="B93" t="s">
         <v>29</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="7">
         <v>64</v>
       </c>
-      <c r="D93">
-        <v>68217</v>
+      <c r="D93" s="7">
+        <v>692</v>
       </c>
       <c r="F93" s="5"/>
     </row>
@@ -9027,11 +9951,11 @@
       <c r="B94" t="s">
         <v>24</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="7">
         <v>293</v>
       </c>
-      <c r="D94">
-        <v>81235</v>
+      <c r="D94" s="7">
+        <v>646</v>
       </c>
       <c r="F94" s="5"/>
     </row>
@@ -9042,11 +9966,11 @@
       <c r="B95" t="s">
         <v>25</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="7">
         <v>80</v>
       </c>
-      <c r="D95">
-        <v>1251567</v>
+      <c r="D95" s="7">
+        <v>774</v>
       </c>
       <c r="F95" s="5"/>
     </row>
@@ -9057,11 +9981,11 @@
       <c r="B96" t="s">
         <v>26</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="7">
         <v>100</v>
       </c>
-      <c r="D96">
-        <v>47136</v>
+      <c r="D96" s="7">
+        <v>374</v>
       </c>
       <c r="F96" s="5"/>
     </row>
@@ -9072,6 +9996,8 @@
       <c r="B97" t="s">
         <v>27</v>
       </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9081,11 +10007,11 @@
       <c r="B98" t="s">
         <v>28</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="7">
         <v>181</v>
       </c>
-      <c r="D98">
-        <v>194989</v>
+      <c r="D98" s="7">
+        <v>2078</v>
       </c>
       <c r="F98" s="5"/>
     </row>
@@ -9096,11 +10022,11 @@
       <c r="B99" t="s">
         <v>29</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="7">
         <v>67</v>
       </c>
-      <c r="D99">
-        <v>576831</v>
+      <c r="D99" s="7">
+        <v>1298</v>
       </c>
       <c r="F99" s="5"/>
     </row>
@@ -9111,11 +10037,11 @@
       <c r="B100" t="s">
         <v>24</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="7">
         <v>233</v>
       </c>
-      <c r="D100">
-        <v>429641648</v>
+      <c r="D100" s="7">
+        <v>1489</v>
       </c>
       <c r="F100" s="5"/>
     </row>
@@ -9126,11 +10052,11 @@
       <c r="B101" t="s">
         <v>25</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="7">
         <v>164</v>
       </c>
-      <c r="D101">
-        <v>218685</v>
+      <c r="D101" s="7">
+        <v>1951</v>
       </c>
       <c r="F101" s="5"/>
     </row>
@@ -9141,11 +10067,11 @@
       <c r="B102" t="s">
         <v>26</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="7">
         <v>177</v>
       </c>
-      <c r="D102">
-        <v>14090164</v>
+      <c r="D102" s="7">
+        <v>582</v>
       </c>
       <c r="F102" s="5"/>
     </row>
@@ -9156,6 +10082,8 @@
       <c r="B103" t="s">
         <v>27</v>
       </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -9165,11 +10093,11 @@
       <c r="B104" t="s">
         <v>28</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="7">
         <v>76</v>
       </c>
-      <c r="D104">
-        <v>432318</v>
+      <c r="D104" s="7">
+        <v>982</v>
       </c>
       <c r="F104" s="5"/>
     </row>
@@ -9180,8 +10108,11 @@
       <c r="B105" t="s">
         <v>29</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="7">
         <v>161</v>
+      </c>
+      <c r="D105" s="7">
+        <v>1082</v>
       </c>
       <c r="F105" s="5"/>
     </row>
@@ -9192,11 +10123,11 @@
       <c r="B106" t="s">
         <v>24</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="7">
         <v>538</v>
       </c>
-      <c r="D106">
-        <v>8159045</v>
+      <c r="D106" s="7">
+        <v>1222</v>
       </c>
       <c r="F106" s="5"/>
     </row>
@@ -9207,11 +10138,11 @@
       <c r="B107" t="s">
         <v>25</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="7">
         <v>117</v>
       </c>
-      <c r="D107">
-        <v>345437798</v>
+      <c r="D107" s="7">
+        <v>1242</v>
       </c>
       <c r="F107" s="5"/>
     </row>
@@ -9222,11 +10153,11 @@
       <c r="B108" t="s">
         <v>26</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="7">
         <v>626</v>
       </c>
-      <c r="D108">
-        <v>1299847</v>
+      <c r="D108" s="7">
+        <v>738</v>
       </c>
       <c r="F108" s="5"/>
     </row>
@@ -9237,6 +10168,8 @@
       <c r="B109" t="s">
         <v>27</v>
       </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -9246,11 +10179,11 @@
       <c r="B110" t="s">
         <v>28</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="7">
         <v>113</v>
       </c>
-      <c r="D110">
-        <v>3618</v>
+      <c r="D110" s="7">
+        <v>1332</v>
       </c>
       <c r="F110" s="5"/>
     </row>
@@ -9261,11 +10194,11 @@
       <c r="B111" t="s">
         <v>29</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="7">
         <v>106</v>
       </c>
-      <c r="D111">
-        <v>8382605</v>
+      <c r="D111" s="7">
+        <v>1433</v>
       </c>
       <c r="F111" s="5"/>
     </row>
@@ -9276,11 +10209,11 @@
       <c r="B112" t="s">
         <v>24</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="7">
         <v>48</v>
       </c>
-      <c r="D112">
-        <v>5346</v>
+      <c r="D112" s="7">
+        <v>379</v>
       </c>
       <c r="F112" s="5"/>
     </row>
@@ -9291,11 +10224,11 @@
       <c r="B113" t="s">
         <v>25</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="7">
         <v>23</v>
       </c>
-      <c r="D113">
-        <v>99969</v>
+      <c r="D113" s="7">
+        <v>448</v>
       </c>
       <c r="F113" s="5"/>
     </row>
@@ -9306,11 +10239,11 @@
       <c r="B114" t="s">
         <v>26</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="7">
         <v>13</v>
       </c>
-      <c r="D114">
-        <v>3179</v>
+      <c r="D114" s="7">
+        <v>1731</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -9321,6 +10254,8 @@
       <c r="B115" t="s">
         <v>27</v>
       </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -9330,11 +10265,11 @@
       <c r="B116" t="s">
         <v>28</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="7">
         <v>3</v>
       </c>
-      <c r="D116">
-        <v>978</v>
+      <c r="D116" s="7">
+        <v>291</v>
       </c>
       <c r="F116" s="5"/>
     </row>
@@ -9345,11 +10280,11 @@
       <c r="B117" t="s">
         <v>29</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="7">
         <v>9</v>
       </c>
-      <c r="D117">
-        <v>2505</v>
+      <c r="D117" s="7">
+        <v>660</v>
       </c>
       <c r="F117" s="5"/>
     </row>
@@ -9361,21 +10296,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="23.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="102.5703125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+    <row r="3" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B6:T26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="26" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9391,34 +10528,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I18"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="7.7109375" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" style="8"/>
+    <col min="7" max="7" width="4.85546875" style="8" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="8.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="10" t="s">
+    <row r="1" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="N3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:17" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="H18" s="17" t="s">
         <v>40</v>
       </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="N18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
   <si>
     <t>Année</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Thème</t>
   </si>
   <si>
-    <t>Répartition des articles par thème et par année</t>
-  </si>
-  <si>
     <t>Nb articles par theme et année</t>
   </si>
   <si>
@@ -166,28 +163,7 @@
     <t>Les Catastrophes Naturelles</t>
   </si>
   <si>
-    <t>Top 10  des noms dans le contenu des articles</t>
-  </si>
-  <si>
-    <t>Top 10  des verbes dans le titre des articles</t>
-  </si>
-  <si>
-    <t>Top 10  des verbes dans le contenu des articles</t>
-  </si>
-  <si>
-    <t>Top 10  des noms dans le titre des articles</t>
-  </si>
-  <si>
-    <t>Top 10  des adjectifs dans le titre des articles</t>
-  </si>
-  <si>
-    <t>Top 10  des adjectifs dans le contenu des articles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Au travers du Dashbord nous allons montrer les différents résultats obtenus en analysant les articles. </t>
-  </si>
-  <si>
-    <t>Nombre de morts selon la catastrophe naturelle et l'année</t>
   </si>
 </sst>
 </file>
@@ -253,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +238,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -279,28 +261,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -317,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,110 +288,31 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0%"/>
     </dxf>
@@ -741,6 +622,78 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1066,7 +1019,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-8646-4925-B74E-56F62A7BE06C}"/>
+              <c16:uniqueId val="{00000022-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,7 +1180,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-8646-4925-B74E-56F62A7BE06C}"/>
+              <c16:uniqueId val="{00000023-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1388,7 +1341,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-8646-4925-B74E-56F62A7BE06C}"/>
+              <c16:uniqueId val="{00000024-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1549,7 +1502,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-8646-4925-B74E-56F62A7BE06C}"/>
+              <c16:uniqueId val="{00000025-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1710,7 +1663,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-8646-4925-B74E-56F62A7BE06C}"/>
+              <c16:uniqueId val="{00000026-8646-4925-B74E-56F62A7BE06C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2845,7 +2798,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-9D1E-448A-AC68-50FADAFE1FF5}"/>
+              <c16:uniqueId val="{00000022-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3005,7 +2958,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-9D1E-448A-AC68-50FADAFE1FF5}"/>
+              <c16:uniqueId val="{00000023-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3147,7 +3100,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-9D1E-448A-AC68-50FADAFE1FF5}"/>
+              <c16:uniqueId val="{00000024-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3271,7 +3224,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-9D1E-448A-AC68-50FADAFE1FF5}"/>
+              <c16:uniqueId val="{00000025-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,7 +3384,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-9D1E-448A-AC68-50FADAFE1FF5}"/>
+              <c16:uniqueId val="{00000026-9D1E-448A-AC68-50FADAFE1FF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4961,10 +4914,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
@@ -5024,10 +4974,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
@@ -5131,10 +5078,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
@@ -5179,82 +5123,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2868706" y="179294"/>
-          <a:ext cx="8718176" cy="661147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="1"/>
-            <a:t>Tableau</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="1" baseline="0"/>
-            <a:t> de bord sur les catastrophes naturelles au début du XXIe siècle</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>16669</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5280,13 +5157,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>88107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5310,16 +5187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145256</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314590</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>221457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>450056</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5349,8 +5226,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8527256" y="5174456"/>
-              <a:ext cx="1828800" cy="2016919"/>
+              <a:off x="9458590" y="411957"/>
+              <a:ext cx="1828800" cy="2015596"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5382,16 +5259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>169068</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461432</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>208227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>473868</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>173831</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148696</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5421,8 +5298,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10837068" y="4912519"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="11891432" y="398727"/>
+              <a:ext cx="1828800" cy="2522802"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5452,6 +5329,128 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770283" y="140804"/>
+          <a:ext cx="7065065" cy="289892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1"/>
+            <a:t>Répartition des articles par thème et par année</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226943</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781878" y="3780182"/>
+          <a:ext cx="7065065" cy="289892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1"/>
+            <a:t>Nombre de morts selon la catastrophe naturelle et l'année</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5460,15 +5459,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>219073</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>411267</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85501</xdr:rowOff>
+      <xdr:colOff>375073</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5477,7 +5476,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5485,34 +5484,41 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="6664" r="2826" b="12159"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114926" y="2752726"/>
-          <a:ext cx="3430691" cy="1800000"/>
+          <a:off x="4867273" y="2638425"/>
+          <a:ext cx="3204000" cy="1606838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>84190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>372000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>164080</xdr:rowOff>
+      <xdr:colOff>356024</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5521,7 +5527,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5529,34 +5535,41 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="5849" b="11798"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="408040"/>
-          <a:ext cx="3420000" cy="1794390"/>
+          <a:off x="4848224" y="408040"/>
+          <a:ext cx="3204000" cy="1574833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>143814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>325540</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38814</xdr:rowOff>
+      <xdr:colOff>298874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>62981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5565,7 +5578,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5573,34 +5586,41 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="6941" b="9564"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457199" y="2801289"/>
-          <a:ext cx="3430691" cy="1800000"/>
+          <a:off x="657224" y="2620314"/>
+          <a:ext cx="3204000" cy="1633667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>34685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>354117</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120185</xdr:rowOff>
+      <xdr:colOff>327449</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5609,7 +5629,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5617,34 +5637,41 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="5831" b="8794"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485775" y="796685"/>
-          <a:ext cx="3430692" cy="1800000"/>
+          <a:off x="685799" y="358535"/>
+          <a:ext cx="3204000" cy="1628164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>354115</xdr:colOff>
+      <xdr:colOff>260775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>190275</xdr:rowOff>
+      <xdr:rowOff>5449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5653,7 +5680,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5661,18 +5688,25 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="5831" b="8454"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867776" y="428625"/>
-          <a:ext cx="3430689" cy="1800000"/>
+          <a:off x="9001125" y="409575"/>
+          <a:ext cx="3204000" cy="1634224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5680,15 +5714,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>382690</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85500</xdr:rowOff>
+      <xdr:colOff>289349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5697,7 +5731,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -5705,20 +5739,417 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="7496" b="10042"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096376" y="2752725"/>
-          <a:ext cx="3430689" cy="1800000"/>
+          <a:off x="9029699" y="2657475"/>
+          <a:ext cx="3204000" cy="1634805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="38100"/>
+          <a:ext cx="3476625" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des verbes dans le titre des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477719</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695829" y="41031"/>
+          <a:ext cx="3475159" cy="229332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des noms dans le titre des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591284</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848726" y="54218"/>
+          <a:ext cx="3475159" cy="229332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des adjectifs dans le titre des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="2214194"/>
+          <a:ext cx="3475159" cy="229332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des verbes dans le contenu des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309922</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414697</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632807" y="2220057"/>
+          <a:ext cx="3475159" cy="236656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des noms dans le contenu des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>383915</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8851641" y="2220057"/>
+          <a:ext cx="3475159" cy="242516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des adjectifs dans le contenu des articles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7083,10 +7514,10 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="5" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="24">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7163,7 +7594,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="12" series="1">
+    <chartFormat chart="4" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7175,7 +7606,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="13" series="1">
+    <chartFormat chart="4" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7187,7 +7618,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="14" series="1">
+    <chartFormat chart="4" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7199,7 +7630,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="15" series="1">
+    <chartFormat chart="4" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7211,7 +7642,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="16" series="1">
+    <chartFormat chart="4" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7223,7 +7654,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="17" series="1">
+    <chartFormat chart="4" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7574,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="M31" sqref="M30:M31"/>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,18 +8032,18 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>22</v>
@@ -8664,10 +9095,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -10301,47 +10732,47 @@
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="23.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="102.5703125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="23.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="102.5703125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C3" s="14" t="s">
-        <v>39</v>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
-        <v>46</v>
+      <c r="C12" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
+      <c r="C16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10355,164 +10786,152 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B6:T26"/>
+  <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+    </row>
+    <row r="2" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="26" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10535,66 +10954,54 @@
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="8"/>
-    <col min="7" max="7" width="4.85546875" style="8" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="8"/>
-    <col min="12" max="12" width="8.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" style="9"/>
+    <col min="7" max="7" width="4.85546875" style="9" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="9"/>
+    <col min="12" max="12" width="8.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="H3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="N3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:17" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="H18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="N18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="49">
   <si>
     <t>Année</t>
   </si>
@@ -171,16 +171,39 @@
   <si>
     <t>Somme de Cout</t>
   </si>
+  <si>
+    <t>Nouvel Obs</t>
+  </si>
+  <si>
+    <t>Le Monde</t>
+  </si>
+  <si>
+    <t>Le Point</t>
+  </si>
+  <si>
+    <t>Libération</t>
+  </si>
+  <si>
+    <t>Le Figaro</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -279,11 +302,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,182 +338,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="168" formatCode="0.0000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,12 +408,166 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -539,13 +576,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="49"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -554,13 +619,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="50"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -569,13 +662,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="51"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -584,13 +705,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="52"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -599,565 +748,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="53"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="27"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="28"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="29"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="30"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="31"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="32"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="33"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="34"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="35"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="36"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="37"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="38"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="39"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="40"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="41"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1186,11 +811,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1334,11 +987,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1454,7 +1135,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2338-4636-B60A-6838AD04494D}"/>
+              <c16:uniqueId val="{00000003-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1473,11 +1154,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1614,7 +1323,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2338-4636-B60A-6838AD04494D}"/>
+              <c16:uniqueId val="{00000004-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1633,11 +1342,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1756,7 +1493,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2338-4636-B60A-6838AD04494D}"/>
+              <c16:uniqueId val="{00000008-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1775,11 +1512,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1880,7 +1645,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2338-4636-B60A-6838AD04494D}"/>
+              <c16:uniqueId val="{00000009-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1899,11 +1664,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2040,7 +1833,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-2338-4636-B60A-6838AD04494D}"/>
+              <c16:uniqueId val="{0000000A-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2087,8 +1880,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2147,8 +1940,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2187,11 +1980,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2277,273 +2070,57 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2566,11 +2143,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2711,11 +2316,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2834,7 +2467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D790-46C3-99BF-2A7FF710AD6D}"/>
+              <c16:uniqueId val="{00000003-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2853,11 +2486,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2994,7 +2655,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D790-46C3-99BF-2A7FF710AD6D}"/>
+              <c16:uniqueId val="{00000004-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3013,11 +2674,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3136,7 +2825,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D790-46C3-99BF-2A7FF710AD6D}"/>
+              <c16:uniqueId val="{00000008-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3155,11 +2844,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3263,7 +2980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D790-46C3-99BF-2A7FF710AD6D}"/>
+              <c16:uniqueId val="{00000009-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3282,11 +2999,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3423,7 +3168,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D790-46C3-99BF-2A7FF710AD6D}"/>
+              <c16:uniqueId val="{0000000A-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3470,8 +3215,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3530,8 +3275,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3570,11 +3315,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3660,12 +3405,94 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3674,13 +3501,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="25"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3689,13 +3544,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="26"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3704,13 +3587,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="27"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3719,13 +3630,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="28"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3734,193 +3673,41 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="29"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3950,11 +3737,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4111,11 +3926,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4253,7 +4096,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0C12-496E-BDAD-C52EF970FE4D}"/>
+              <c16:uniqueId val="{00000003-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4272,11 +4115,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4414,7 +4285,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0C12-496E-BDAD-C52EF970FE4D}"/>
+              <c16:uniqueId val="{00000004-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4433,11 +4304,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4575,7 +4474,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-0C12-496E-BDAD-C52EF970FE4D}"/>
+              <c16:uniqueId val="{00000008-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4594,11 +4493,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4736,7 +4663,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-0C12-496E-BDAD-C52EF970FE4D}"/>
+              <c16:uniqueId val="{00000009-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4755,11 +4682,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4897,7 +4852,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-0C12-496E-BDAD-C52EF970FE4D}"/>
+              <c16:uniqueId val="{0000000A-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4946,8 +4901,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5006,8 +4961,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5049,8 +5004,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5111,6 +5066,1129 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Transformation data!Tableau croisé dynamique4</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$84:$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$B$84:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.4528973417862304E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3124235346457569E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0080080080080079E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7845623401178957E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3680347013680347E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3366700033366697E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4570125681236792E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2012012012012012E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6834612390167946E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5803581359136914E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2294516738961187E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10199087976865755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7319541763986203E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10899788677566455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8856634412189971E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0191302413524637E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0201312423534644E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16683350016683349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0677344010677344E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E08-4F1C-B32F-6A66DE8667D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1015606416"/>
+        <c:axId val="1015606832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1015606416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015606832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015606832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015606416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35172320351847913"/>
+          <c:y val="0.11342592592592593"/>
+          <c:w val="0.30090090090090088"/>
+          <c:h val="0.77314814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B888-46EE-BEF4-2FE452DD3C8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B888-46EE-BEF4-2FE452DD3C8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B888-46EE-BEF4-2FE452DD3C8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B888-46EE-BEF4-2FE452DD3C8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B888-46EE-BEF4-2FE452DD3C8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$H$3:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Nouvel Obs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Le Monde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Le Point</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libération</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Le Figaro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16222512113306001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20070816250465898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36982855013045096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3730898248229592E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23350726798360044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B888-46EE-BEF4-2FE452DD3C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74769965240831382"/>
+          <c:y val="0.2954268737241178"/>
+          <c:w val="0.125382279917713"/>
+          <c:h val="0.44665901137357833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5234,19 +6312,99 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="280">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5254,8 +6412,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5276,7 +6434,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5292,7 +6450,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5300,8 +6458,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5335,36 +6493,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5376,30 +6560,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5416,20 +6603,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5439,7 +6624,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5448,14 +6633,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5464,17 +6648,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5483,17 +6667,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5502,26 +6685,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5540,17 +6712,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5559,17 +6730,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5578,17 +6749,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5598,8 +6768,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5609,7 +6779,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5617,7 +6787,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5626,8 +6796,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5648,17 +6818,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5668,27 +6838,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5698,8 +6867,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5709,20 +6878,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5732,8 +6900,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5743,31 +6911,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="280">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5775,8 +6937,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5797,7 +6959,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5813,7 +6975,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5821,8 +6983,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5856,36 +7018,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5897,30 +7085,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5937,20 +7128,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5960,7 +7149,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5969,14 +7158,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5985,17 +7173,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6004,17 +7192,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6023,26 +7210,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6061,17 +7237,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6080,17 +7255,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6099,17 +7274,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6119,8 +7293,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6130,7 +7304,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6138,7 +7312,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6147,8 +7321,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6169,17 +7343,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6189,27 +7363,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6219,8 +7392,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6230,20 +7403,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6253,8 +7425,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6264,31 +7436,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="301">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6296,8 +7462,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6318,7 +7484,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6334,7 +7500,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6342,8 +7508,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6377,36 +7543,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6418,30 +7610,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6458,20 +7653,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6481,7 +7674,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6490,14 +7683,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6506,17 +7698,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6525,17 +7717,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6544,21 +7735,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6577,17 +7762,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6596,17 +7780,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6615,21 +7799,760 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6640,13 +8563,312 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6654,7 +8876,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6663,10 +8885,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6674,17 +8907,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6694,27 +8927,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6724,8 +8956,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6735,20 +8967,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6758,8 +8989,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6769,14 +9000,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7148,13 +9373,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5686424</xdr:colOff>
+      <xdr:colOff>5495924</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6791325</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -7165,7 +9390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029574" y="3733800"/>
+          <a:off x="7839074" y="3733800"/>
           <a:ext cx="1295401" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7196,6 +9421,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="1"/>
             <a:t>6 catastrophes</a:t>
@@ -7218,15 +9444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
+      <xdr:colOff>76319</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>240196</xdr:rowOff>
+      <xdr:colOff>283384</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7235,7 +9461,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770283" y="140804"/>
+          <a:off x="457319" y="3773908"/>
           <a:ext cx="7065065" cy="289892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7279,15 +9505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53008</xdr:rowOff>
+      <xdr:colOff>87914</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>226943</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44726</xdr:rowOff>
+      <xdr:colOff>294979</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>58330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7296,8 +9522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781878" y="3780182"/>
-          <a:ext cx="7065065" cy="289892"/>
+          <a:off x="468914" y="7414469"/>
+          <a:ext cx="7065065" cy="291075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7339,16 +9565,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201082</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>269118</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>89804</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7372,15 +9598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>215207</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7473,15 +9699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7505,15 +9731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
+      <xdr:colOff>72118</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376918</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7543,7 +9769,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8467725" y="421822"/>
+              <a:off x="8073118" y="7415894"/>
               <a:ext cx="1828800" cy="2000250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7576,16 +9802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>262618</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>630011</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>567418</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7615,7 +9841,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10549618" y="394607"/>
+              <a:off x="10155011" y="7443107"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7644,6 +9870,192 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Graphique 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106255</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>283735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487255" y="184343"/>
+          <a:ext cx="7065065" cy="289892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1"/>
+            <a:t>Répartition des articles par année</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Graphique 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68154</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>159850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>275219</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>259242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069154" y="159850"/>
+          <a:ext cx="7065065" cy="289892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1"/>
+            <a:t>Répartition des articles par année</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8351,7 +10763,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43183.64655902778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43183.669772453701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E117" sheet="Data"/>
   </cacheSource>
@@ -8509,7 +10921,7 @@
     <cacheField name="Nb mort" numFmtId="166">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9629"/>
     </cacheField>
-    <cacheField name="Cout" numFmtId="0">
+    <cacheField name="Cout" numFmtId="172">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1750" maxValue="25097157200"/>
     </cacheField>
     <cacheField name="Trimestres" numFmtId="0" databaseField="0">
@@ -9366,7 +11778,190 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A83:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="19">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="19">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="10" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A59:H80" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -9578,7 +12173,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="12" series="1">
+    <chartFormat chart="13" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9590,7 +12185,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="13" series="1">
+    <chartFormat chart="13" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9602,7 +12197,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="14" series="1">
+    <chartFormat chart="13" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9614,7 +12209,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="15" series="1">
+    <chartFormat chart="13" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9626,7 +12221,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="16" series="1">
+    <chartFormat chart="13" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9638,7 +12233,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="17" series="1">
+    <chartFormat chart="13" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9660,8 +12255,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -9873,7 +12468,55 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="36" series="1">
+    <chartFormat chart="17" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="52" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9885,7 +12528,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="37" series="1">
+    <chartFormat chart="17" format="53" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9893,54 +12536,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -9955,8 +12550,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0">
@@ -10123,22 +12718,22 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="56">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10287,7 +12882,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="12" series="1">
+    <chartFormat chart="4" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10299,7 +12894,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="13" series="1">
+    <chartFormat chart="4" format="25" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10311,7 +12906,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="14" series="1">
+    <chartFormat chart="4" format="26" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10323,7 +12918,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="15" series="1">
+    <chartFormat chart="4" format="27" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10335,7 +12930,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="16" series="1">
+    <chartFormat chart="4" format="28" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10347,7 +12942,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="17" series="1">
+    <chartFormat chart="4" format="29" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10698,10 +13293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T80"/>
+  <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G25"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10709,7 +13304,7 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
@@ -12456,6 +15051,174 @@
         <v>325014907467</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6">
+        <v>8.4528973417862304E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1.3124235346457569E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="6">
+        <v>8.0080080080080079E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="6">
+        <v>6.7845623401178957E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1.3680347013680347E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="6">
+        <v>3.3366700033366697E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="6">
+        <v>1.4570125681236792E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1.2012012012012012E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="6">
+        <v>5.6834612390167946E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="6">
+        <v>2.5803581359136914E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="6">
+        <v>7.2294516738961187E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.10199087976865755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="6">
+        <v>9.7319541763986203E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.10899788677566455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="6">
+        <v>7.8856634412189971E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="6">
+        <v>8.0191302413524637E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="6">
+        <v>9.0201312423534644E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.16683350016683349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1.0677344010677344E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12463,27 +15226,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E117"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" activeCellId="1" sqref="H3:H7 J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -12496,12 +15267,22 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>1741</v>
+      </c>
+      <c r="J3" s="21">
+        <f>I3/$I$8</f>
+        <v>0.16222512113306001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>36699</v>
       </c>
@@ -12511,8 +15292,18 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>2154</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:J7" si="0">I4/$I$8</f>
+        <v>0.20070816250465898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>36700</v>
       </c>
@@ -12522,8 +15313,18 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>3969</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.36982855013045096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>36701</v>
       </c>
@@ -12536,12 +15337,22 @@
       <c r="D6" s="7">
         <v>1353</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="20">
         <v>4871647614</v>
       </c>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>362</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>3.3730898248229592E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>36702</v>
       </c>
@@ -12551,8 +15362,18 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>2506</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
+        <v>0.23350726798360044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>36703</v>
       </c>
@@ -12565,12 +15386,16 @@
       <c r="D8" s="7">
         <v>4490</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="20">
         <v>679586</v>
       </c>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>SUM(I3:I7)</f>
+        <v>10732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>36704</v>
       </c>
@@ -12581,7 +15406,7 @@
       <c r="D9" s="7"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>37065</v>
       </c>
@@ -12592,7 +15417,7 @@
       <c r="D10" s="7"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>37066</v>
       </c>
@@ -12603,7 +15428,7 @@
       <c r="D11" s="7"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>37067</v>
       </c>
@@ -12616,12 +15441,12 @@
       <c r="D12" s="7">
         <v>399</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="20">
         <v>17931163558</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>37068</v>
       </c>
@@ -12632,7 +15457,7 @@
       <c r="D13" s="7"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>37069</v>
       </c>
@@ -12645,12 +15470,12 @@
       <c r="D14" s="7">
         <v>711</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="20">
         <v>6226365697</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>37070</v>
       </c>
@@ -12661,7 +15486,7 @@
       <c r="D15" s="7"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>37431</v>
       </c>
@@ -12696,7 +15521,7 @@
       <c r="D18" s="7">
         <v>452</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="20">
         <v>7438693043</v>
       </c>
       <c r="F18" s="5"/>
@@ -12725,7 +15550,7 @@
       <c r="D20" s="7">
         <v>198</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="20">
         <v>4760042872</v>
       </c>
       <c r="F20" s="5"/>
@@ -12763,7 +15588,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="3">
+      <c r="E23" s="20">
         <v>2832002888</v>
       </c>
       <c r="F23" s="5"/>
@@ -12781,7 +15606,7 @@
       <c r="D24" s="7">
         <v>583</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="20">
         <v>8661066938</v>
       </c>
       <c r="F24" s="5"/>
@@ -12810,7 +15635,7 @@
       <c r="D26" s="7">
         <v>1414</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="20">
         <v>4758393208</v>
       </c>
       <c r="F26" s="5"/>
@@ -12856,7 +15681,7 @@
       <c r="D29" s="7">
         <v>1267</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="20">
         <v>6773938390</v>
       </c>
       <c r="F29" s="5"/>
@@ -12874,7 +15699,7 @@
       <c r="D30" s="7">
         <v>559</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="20">
         <v>4633184667</v>
       </c>
       <c r="F30" s="5"/>
@@ -12890,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="3">
+      <c r="E31" s="20">
         <v>2108333333</v>
       </c>
       <c r="F31" s="5"/>
@@ -12908,7 +15733,7 @@
       <c r="D32" s="7">
         <v>684</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="20">
         <v>573194415</v>
       </c>
       <c r="F32" s="5"/>
@@ -12926,7 +15751,7 @@
       <c r="D33" s="7">
         <v>15</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="20">
         <v>3117700125</v>
       </c>
       <c r="F33" s="5"/>
@@ -12944,7 +15769,7 @@
       <c r="D34" s="7">
         <v>823</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="20">
         <v>4228576645</v>
       </c>
       <c r="F34" s="5"/>
@@ -12962,7 +15787,7 @@
       <c r="D35" s="7">
         <v>2946</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="20">
         <v>3507845217</v>
       </c>
       <c r="F35" s="5"/>
@@ -12980,7 +15805,7 @@
       <c r="D36" s="7">
         <v>913</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="20">
         <v>5414903364</v>
       </c>
       <c r="F36" s="5"/>
@@ -12998,7 +15823,7 @@
       <c r="D37" s="7">
         <v>9629</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="20">
         <v>9750000000</v>
       </c>
       <c r="F37" s="5"/>
@@ -13016,7 +15841,7 @@
       <c r="D38" s="7">
         <v>182</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="20">
         <v>1680538409</v>
       </c>
       <c r="F38" s="5"/>
@@ -13034,7 +15859,7 @@
       <c r="D39" s="7">
         <v>828</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="20">
         <v>6779708461</v>
       </c>
       <c r="F39" s="5"/>
@@ -13052,7 +15877,7 @@
       <c r="D40" s="7">
         <v>1258</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="20">
         <v>3666766666</v>
       </c>
       <c r="F40" s="5"/>
@@ -13070,7 +15895,7 @@
       <c r="D41" s="7">
         <v>1855</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="20">
         <v>3713471892</v>
       </c>
       <c r="F41" s="5"/>
@@ -13088,7 +15913,7 @@
       <c r="D42" s="7">
         <v>580</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="20">
         <v>3673384216</v>
       </c>
       <c r="F42" s="5"/>
@@ -13106,7 +15931,7 @@
       <c r="D43" s="7">
         <v>1158</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="20">
         <v>1750</v>
       </c>
       <c r="F43" s="5"/>
@@ -13124,7 +15949,7 @@
       <c r="D44" s="7">
         <v>82</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="20">
         <v>268086766</v>
       </c>
       <c r="F44" s="5"/>
@@ -13142,7 +15967,7 @@
       <c r="D45" s="7">
         <v>2519</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="20">
         <v>2380922134</v>
       </c>
       <c r="F45" s="5"/>
@@ -13160,7 +15985,7 @@
       <c r="D46" s="7">
         <v>1491</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="20">
         <v>44014220</v>
       </c>
       <c r="F46" s="5"/>
@@ -13189,7 +16014,7 @@
       <c r="D48" s="7">
         <v>1512</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="20">
         <v>2397273349</v>
       </c>
       <c r="F48" s="5"/>
@@ -13218,7 +16043,7 @@
       <c r="D50" s="7">
         <v>440</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="20">
         <v>25786856</v>
       </c>
       <c r="F50" s="5"/>
@@ -13236,7 +16061,7 @@
       <c r="D51" s="7">
         <v>70</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="20">
         <v>114343483</v>
       </c>
       <c r="F51" s="5"/>
@@ -13254,7 +16079,7 @@
       <c r="D52" s="7">
         <v>2867</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="20">
         <v>1604982178</v>
       </c>
       <c r="F52" s="5"/>
@@ -13283,7 +16108,7 @@
       <c r="D54" s="7">
         <v>1048</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="20">
         <v>6180142771</v>
       </c>
       <c r="F54" s="5"/>
@@ -13312,7 +16137,7 @@
       <c r="D56" s="7">
         <v>1741</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="20">
         <v>4379476748</v>
       </c>
       <c r="F56" s="5"/>
@@ -13341,7 +16166,7 @@
       <c r="D58" s="7">
         <v>1974</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="20">
         <v>5450928523</v>
       </c>
       <c r="F58" s="5"/>
@@ -13370,7 +16195,7 @@
       <c r="D60" s="7">
         <v>869</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="20">
         <v>820547320</v>
       </c>
       <c r="F60" s="5"/>
@@ -13388,7 +16213,7 @@
       <c r="D61" s="7">
         <v>39</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="20">
         <v>112475031</v>
       </c>
       <c r="F61" s="5"/>
@@ -13406,7 +16231,7 @@
       <c r="D62" s="7">
         <v>1153</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="20">
         <v>1452988638</v>
       </c>
       <c r="F62" s="5"/>
@@ -13435,7 +16260,7 @@
       <c r="D64" s="7">
         <v>1426</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="20">
         <v>3953678860</v>
       </c>
       <c r="F64" s="5"/>
@@ -13453,7 +16278,7 @@
       <c r="D65" s="7">
         <v>1275</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="20">
         <v>2941936701</v>
       </c>
       <c r="F65" s="5"/>
@@ -13471,7 +16296,7 @@
       <c r="D66" s="7">
         <v>1133</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="20">
         <v>3288823279</v>
       </c>
       <c r="F66" s="5"/>
@@ -13489,7 +16314,7 @@
       <c r="D67" s="7">
         <v>30</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="20">
         <v>190000</v>
       </c>
       <c r="F67" s="5"/>
@@ -13507,7 +16332,7 @@
       <c r="D68" s="7">
         <v>1603</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="20">
         <v>1757612996</v>
       </c>
       <c r="F68" s="5"/>
@@ -13525,7 +16350,7 @@
       <c r="D69" s="7">
         <v>60</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="20">
         <v>11614426409</v>
       </c>
       <c r="F69" s="5"/>
@@ -13541,7 +16366,7 @@
       <c r="D70" s="7">
         <v>1081</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="20">
         <v>2837255128</v>
       </c>
       <c r="F70" s="5"/>
@@ -13559,7 +16384,7 @@
       <c r="D71" s="7">
         <v>1241</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="20">
         <v>4542536803</v>
       </c>
       <c r="F71" s="5"/>
@@ -13577,7 +16402,7 @@
       <c r="D72" s="7">
         <v>1313</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="20">
         <v>5019650566</v>
       </c>
       <c r="F72" s="5"/>
@@ -13595,7 +16420,7 @@
       <c r="D73" s="7">
         <v>316</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="20">
         <v>124444600</v>
       </c>
       <c r="F73" s="5"/>
@@ -13613,7 +16438,7 @@
       <c r="D74" s="7">
         <v>1454</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="20">
         <v>2499108957</v>
       </c>
       <c r="F74" s="5"/>
@@ -13631,7 +16456,7 @@
       <c r="D75" s="7">
         <v>1821</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="20">
         <v>2845060930</v>
       </c>
       <c r="F75" s="5"/>
@@ -13649,7 +16474,7 @@
       <c r="D76" s="7">
         <v>911</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="20">
         <v>2846486128</v>
       </c>
       <c r="F76" s="5"/>
@@ -13667,7 +16492,7 @@
       <c r="D77" s="7">
         <v>1505</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="20">
         <v>3813933139</v>
       </c>
       <c r="F77" s="5"/>
@@ -13685,7 +16510,7 @@
       <c r="D78" s="7">
         <v>1073</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="20">
         <v>6528706869</v>
       </c>
       <c r="F78" s="5"/>
@@ -13703,7 +16528,7 @@
       <c r="D79" s="7">
         <v>24</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="20">
         <v>57500000</v>
       </c>
       <c r="F79" s="5"/>
@@ -13721,7 +16546,7 @@
       <c r="D80" s="7">
         <v>1086</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="20">
         <v>2715239872</v>
       </c>
       <c r="F80" s="5"/>
@@ -13739,7 +16564,7 @@
       <c r="D81" s="7">
         <v>1175</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="20">
         <v>144112498</v>
       </c>
       <c r="F81" s="5"/>
@@ -13757,7 +16582,7 @@
       <c r="D82" s="7">
         <v>1566</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="20">
         <v>710496486</v>
       </c>
       <c r="F82" s="5"/>
@@ -13775,7 +16600,7 @@
       <c r="D83" s="7">
         <v>1417</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="20">
         <v>3459816558</v>
       </c>
       <c r="F83" s="5"/>
@@ -13793,7 +16618,7 @@
       <c r="D84" s="7">
         <v>1516</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="20">
         <v>9205031603</v>
       </c>
       <c r="F84" s="5"/>
@@ -13811,7 +16636,7 @@
       <c r="D85" s="7">
         <v>202</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="20">
         <v>13000000</v>
       </c>
       <c r="F85" s="5"/>
@@ -13829,7 +16654,7 @@
       <c r="D86" s="7">
         <v>2290</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="20">
         <v>1638513362</v>
       </c>
       <c r="F86" s="5"/>
@@ -13847,7 +16672,7 @@
       <c r="D87" s="7">
         <v>777</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="20">
         <v>1515716215</v>
       </c>
       <c r="F87" s="5"/>
@@ -13865,7 +16690,7 @@
       <c r="D88" s="7">
         <v>762</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="20">
         <v>2424452277</v>
       </c>
       <c r="F88" s="5"/>
@@ -13883,7 +16708,7 @@
       <c r="D89" s="7">
         <v>1280</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="20">
         <v>1112203174</v>
       </c>
       <c r="F89" s="5"/>
@@ -13901,7 +16726,7 @@
       <c r="D90" s="7">
         <v>632</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="20">
         <v>4159410999</v>
       </c>
       <c r="F90" s="5"/>
@@ -13930,7 +16755,7 @@
       <c r="D92" s="7">
         <v>1138</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="20">
         <v>4117237634</v>
       </c>
       <c r="F92" s="5"/>
@@ -13948,7 +16773,7 @@
       <c r="D93" s="7">
         <v>692</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="20">
         <v>2162030815</v>
       </c>
       <c r="F93" s="5"/>
@@ -13966,7 +16791,7 @@
       <c r="D94" s="7">
         <v>646</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="20">
         <v>1897230346</v>
       </c>
       <c r="F94" s="5"/>
@@ -13984,7 +16809,7 @@
       <c r="D95" s="7">
         <v>774</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="20">
         <v>1434885923</v>
       </c>
       <c r="F95" s="5"/>
@@ -14002,7 +16827,7 @@
       <c r="D96" s="7">
         <v>374</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="20">
         <v>2800482607</v>
       </c>
       <c r="F96" s="5"/>
@@ -14031,7 +16856,7 @@
       <c r="D98" s="7">
         <v>2078</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="20">
         <v>2643560412</v>
       </c>
       <c r="F98" s="5"/>
@@ -14049,7 +16874,7 @@
       <c r="D99" s="7">
         <v>1298</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="20">
         <v>2145410317</v>
       </c>
       <c r="F99" s="5"/>
@@ -14067,7 +16892,7 @@
       <c r="D100" s="7">
         <v>1489</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="20">
         <v>8309197488</v>
       </c>
       <c r="F100" s="5"/>
@@ -14085,7 +16910,7 @@
       <c r="D101" s="7">
         <v>1951</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="20">
         <v>1582778687</v>
       </c>
       <c r="F101" s="5"/>
@@ -14103,7 +16928,7 @@
       <c r="D102" s="7">
         <v>582</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="20">
         <v>1809510865</v>
       </c>
       <c r="F102" s="5"/>
@@ -14132,7 +16957,7 @@
       <c r="D104" s="7">
         <v>982</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="20">
         <v>8116585246</v>
       </c>
       <c r="F104" s="5"/>
@@ -14150,7 +16975,7 @@
       <c r="D105" s="7">
         <v>1082</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="20">
         <v>1123685868</v>
       </c>
       <c r="F105" s="5"/>
@@ -14168,7 +16993,7 @@
       <c r="D106" s="7">
         <v>1222</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="20">
         <v>5882626061</v>
       </c>
       <c r="F106" s="5"/>
@@ -14186,7 +17011,7 @@
       <c r="D107" s="7">
         <v>1242</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="20">
         <v>6310548682</v>
       </c>
       <c r="F107" s="5"/>
@@ -14204,7 +17029,7 @@
       <c r="D108" s="7">
         <v>738</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="20">
         <v>6439694251</v>
       </c>
       <c r="F108" s="5"/>
@@ -14233,7 +17058,7 @@
       <c r="D110" s="7">
         <v>1332</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="20">
         <v>5381703621</v>
       </c>
       <c r="F110" s="5"/>
@@ -14251,7 +17076,7 @@
       <c r="D111" s="7">
         <v>1433</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="20">
         <v>2230629627</v>
       </c>
       <c r="F111" s="5"/>
@@ -14269,7 +17094,7 @@
       <c r="D112" s="7">
         <v>379</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="20">
         <v>11379344139</v>
       </c>
       <c r="F112" s="5"/>
@@ -14287,7 +17112,7 @@
       <c r="D113" s="7">
         <v>448</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="20">
         <v>15978872</v>
       </c>
       <c r="F113" s="5"/>
@@ -14305,7 +17130,7 @@
       <c r="D114" s="7">
         <v>1731</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="20">
         <v>25097157200</v>
       </c>
       <c r="F114" s="5"/>
@@ -14334,7 +17159,7 @@
       <c r="D116" s="7">
         <v>291</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="20">
         <v>31670666</v>
       </c>
       <c r="F116" s="5"/>
@@ -14352,7 +17177,7 @@
       <c r="D117" s="7">
         <v>660</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="20">
         <v>42760</v>
       </c>
       <c r="F117" s="5"/>
@@ -14370,8 +17195,8 @@
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14426,8 +17251,8 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14593,8 +17418,8 @@
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -348,7 +348,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1135,7 +1207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{0000000B-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1323,7 +1395,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{0000000C-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,7 +1565,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{0000000D-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,7 +1717,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{0000000E-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1833,7 +1905,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{0000000F-232F-43A0-9AE8-83A87B41C611}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2467,7 +2539,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{0000000B-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2655,7 +2727,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{0000000C-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2825,7 +2897,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{0000000D-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2980,7 +3052,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{0000000E-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3168,7 +3240,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{0000000F-59EA-40BF-BCD4-37BC1DC26F80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4096,7 +4168,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{0000000B-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4285,7 +4357,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{0000000C-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4474,7 +4546,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{0000000D-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4663,7 +4735,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{0000000E-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4852,7 +4924,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{0000000F-7433-4B49-84BE-3EDB55A76244}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9769,7 +9841,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8073118" y="7415894"/>
+              <a:off x="8073118" y="7412493"/>
               <a:ext cx="1828800" cy="2000250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9841,7 +9913,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10155011" y="7443107"/>
+              <a:off x="10155011" y="7439706"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11885,7 +11957,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -11912,7 +11984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -12718,22 +12790,22 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="7">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17251,8 +17323,8 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17418,7 +17490,7 @@
   </sheetPr>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Transformation data" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Informations" sheetId="5" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId4"/>
-    <sheet name="WordCloud" sheetId="4" r:id="rId5"/>
+    <sheet name="WordCloud " sheetId="4" r:id="rId5"/>
+    <sheet name="CoutriesCloud" sheetId="6" r:id="rId6"/>
+    <sheet name="Maps" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Segment_Années">#N/A</definedName>
@@ -24,13 +26,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -203,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -339,7 +341,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -348,102 +350,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000%"/>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,7 +535,7 @@
         <c:idx val="41"/>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="48"/>
+        <c:idx val="42"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -648,7 +578,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="49"/>
+        <c:idx val="43"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -691,7 +621,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="50"/>
+        <c:idx val="44"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -734,7 +664,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="51"/>
+        <c:idx val="45"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -777,7 +707,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="52"/>
+        <c:idx val="46"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -820,7 +750,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="53"/>
+        <c:idx val="47"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -862,10 +792,190 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -883,42 +993,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1038,6 +1123,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2338-4636-B60A-6838AD04494D}"/>
@@ -1059,42 +1145,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1205,9 +1266,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{00000014-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,42 +1288,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1393,9 +1430,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{00000015-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1414,42 +1452,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1563,9 +1576,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{00000016-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1584,42 +1598,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1715,9 +1704,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{00000017-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,42 +1726,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$36:$A$55</c:f>
@@ -1903,9 +1868,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-232F-43A0-9AE8-83A87B41C611}"/>
+              <c16:uniqueId val="{00000018-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1917,9 +1883,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="545852351"/>
         <c:axId val="545849855"/>
-      </c:areaChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="545852351"/>
         <c:scaling>
@@ -2026,7 +1993,7 @@
         </c:txPr>
         <c:crossAx val="545852351"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2194,10 +2161,448 @@
       <c:pivotFmt>
         <c:idx val="17"/>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2215,42 +2620,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -2367,6 +2747,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D790-46C3-99BF-2A7FF710AD6D}"/>
@@ -2388,42 +2769,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -2537,9 +2893,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{00000014-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2558,42 +2915,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -2725,9 +3057,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{00000015-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2746,42 +3079,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -2895,9 +3203,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{00000016-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2916,42 +3225,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -3050,9 +3334,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{00000017-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3071,42 +3356,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Transformation data'!$A$61:$A$80</c:f>
@@ -3238,9 +3498,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-59EA-40BF-BCD4-37BC1DC26F80}"/>
+              <c16:uniqueId val="{00000018-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3252,9 +3513,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="587543487"/>
         <c:axId val="587542655"/>
-      </c:areaChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="587543487"/>
         <c:scaling>
@@ -3361,7 +3623,7 @@
         </c:txPr>
         <c:crossAx val="587543487"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3530,7 +3792,7 @@
         <c:idx val="17"/>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="24"/>
+        <c:idx val="18"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3573,7 +3835,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="25"/>
+        <c:idx val="19"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3616,7 +3878,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="26"/>
+        <c:idx val="20"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3659,7 +3921,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="27"/>
+        <c:idx val="21"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3702,7 +3964,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="28"/>
+        <c:idx val="22"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3745,7 +4007,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="29"/>
+        <c:idx val="23"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -4168,7 +4430,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{00000014-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4357,7 +4619,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{00000015-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4546,7 +4808,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{00000016-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4735,7 +4997,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{00000017-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4924,7 +5186,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-7433-4B49-84BE-3EDB55A76244}"/>
+              <c16:uniqueId val="{00000018-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5200,7 +5462,6 @@
         <c:idx val="3"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5209,17 +5470,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="4"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -5228,14 +5486,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="6"/>
+        <c:idx val="5"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -5274,45 +5530,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9813,8 +10031,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Thème"/>
@@ -9831,7 +10049,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9885,8 +10103,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Années"/>
@@ -9903,7 +10121,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10137,16 +10355,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721837</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>375073</xdr:colOff>
+      <xdr:colOff>18679</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>54263</xdr:rowOff>
+      <xdr:rowOff>133125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10163,24 +10381,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="6664" r="2826" b="12159"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867273" y="2638425"/>
-          <a:ext cx="3204000" cy="1606838"/>
+          <a:off x="4284187" y="2524125"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10188,16 +10400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28272</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>84190</xdr:rowOff>
+      <xdr:rowOff>74664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>356024</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>135023</xdr:rowOff>
+      <xdr:colOff>87114</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10214,24 +10426,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="5849" b="11798"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848224" y="408040"/>
-          <a:ext cx="3204000" cy="1574833"/>
+          <a:off x="4352622" y="398514"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10240,15 +10446,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>98691</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>143814</xdr:rowOff>
+      <xdr:rowOff>143813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>298874</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>62981</xdr:rowOff>
+      <xdr:colOff>481383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10265,24 +10471,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="6941" b="9564"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657224" y="2620314"/>
-          <a:ext cx="3204000" cy="1633667"/>
+          <a:off x="613041" y="2620313"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10291,15 +10491,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>105352</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>34685</xdr:rowOff>
+      <xdr:rowOff>72785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>327449</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138849</xdr:rowOff>
+      <xdr:colOff>488044</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10316,24 +10516,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="5831" b="8794"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685799" y="358535"/>
-          <a:ext cx="3204000" cy="1628164"/>
+          <a:off x="619702" y="396635"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10341,16 +10535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438728</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>260775</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259445</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>5449</xdr:rowOff>
+      <xdr:rowOff>171225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10367,24 +10561,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="5831" b="8454"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="409575"/>
-          <a:ext cx="3204000" cy="1634224"/>
+          <a:off x="8134928" y="409575"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10392,16 +10580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395399</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>289349</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101280</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>216116</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10418,24 +10606,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="7496" b="10042"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9029699" y="2657475"/>
-          <a:ext cx="3204000" cy="1634805"/>
+          <a:off x="8091599" y="2600324"/>
+          <a:ext cx="3430692" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -10444,15 +10626,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10461,7 +10643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="38100"/>
+          <a:off x="609600" y="123825"/>
           <a:ext cx="3476625" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10508,16 +10690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21985</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>477719</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>21248</xdr:rowOff>
+      <xdr:colOff>125294</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10526,8 +10708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695829" y="41031"/>
-          <a:ext cx="3475159" cy="229332"/>
+          <a:off x="4346335" y="126023"/>
+          <a:ext cx="3475159" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10573,15 +10755,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>591284</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>24910</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>34435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10591,8 +10773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848726" y="54218"/>
-          <a:ext cx="3475159" cy="229332"/>
+          <a:off x="8143875" y="129685"/>
+          <a:ext cx="3429000" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10639,15 +10821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10990</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177309</xdr:rowOff>
+      <xdr:colOff>96715</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>157526</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10656,8 +10838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="2214194"/>
-          <a:ext cx="3475159" cy="229332"/>
+          <a:off x="611065" y="2295525"/>
+          <a:ext cx="3475159" cy="233726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10704,15 +10886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>309922</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>183172</xdr:rowOff>
+      <xdr:colOff>24172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>414697</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>170713</xdr:rowOff>
+      <xdr:colOff>128947</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10721,8 +10903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4632807" y="2220057"/>
-          <a:ext cx="3475159" cy="236656"/>
+          <a:off x="4348522" y="2305050"/>
+          <a:ext cx="3476625" cy="237388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10768,16 +10950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594199</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>183172</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>383915</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176573</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>307715</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10786,8 +10968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851641" y="2220057"/>
-          <a:ext cx="3475159" cy="242516"/>
+          <a:off x="8181975" y="2305050"/>
+          <a:ext cx="3431915" cy="243248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10829,6 +11011,665 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="152400"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39792</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="409575"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="152400"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés par les typhons</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668442</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="409575"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>517849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="152400"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés par les cyclones</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411267</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="438150"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146374</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="2152650"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés par les ouragans</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163617</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="2428875"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="2152650"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés par les seismes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>658917</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="2447925"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536899</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="2152650"/>
+          <a:ext cx="3461074" cy="233071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Top 10  des pays les plus touchés par les inondations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525567</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762875" y="2419350"/>
+          <a:ext cx="3430692" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10993,7 +11834,7 @@
     <cacheField name="Nb mort" numFmtId="166">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="9629"/>
     </cacheField>
-    <cacheField name="Cout" numFmtId="172">
+    <cacheField name="Cout" numFmtId="167">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1750" maxValue="25097157200"/>
     </cacheField>
     <cacheField name="Trimestres" numFmtId="0" databaseField="0">
@@ -11850,7 +12691,421 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="165" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A83:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -11957,7 +13212,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="25">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -11984,7 +13239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -12013,7 +13268,7 @@
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="10" format="6" series="1">
+    <chartFormat chart="10" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12032,8 +13287,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A59:H80" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -12245,7 +13500,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="18" series="1">
+    <chartFormat chart="13" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12257,7 +13512,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="19" series="1">
+    <chartFormat chart="13" format="31" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12269,7 +13524,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="20" series="1">
+    <chartFormat chart="13" format="32" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12281,7 +13536,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="21" series="1">
+    <chartFormat chart="13" format="33" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12293,7 +13548,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="22" series="1">
+    <chartFormat chart="13" format="34" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12305,7 +13560,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="23" series="1">
+    <chartFormat chart="13" format="35" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12327,8 +13582,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -12540,7 +13795,31 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="48" series="1">
+    <chartFormat chart="17" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="56" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12552,7 +13831,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="49" series="1">
+    <chartFormat chart="17" format="57" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12564,7 +13843,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="50" series="1">
+    <chartFormat chart="17" format="58" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -12576,445 +13855,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="51" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="52" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="53" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="165" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="21">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29" series="1">
+    <chartFormat chart="17" format="59" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -17267,8 +18108,8 @@
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17323,8 +18164,8 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17488,10 +18329,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17501,13 +18342,12 @@
     <col min="7" max="7" width="4.85546875" style="9" customWidth="1"/>
     <col min="8" max="11" width="11.42578125" style="9"/>
     <col min="12" max="12" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="9"/>
+    <col min="13" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -17516,16 +18356,16 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="N3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:17" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:16" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -17534,13 +18374,54 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformation data" sheetId="3" state="hidden" r:id="rId1"/>
@@ -350,7 +350,133 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1269,7 +1395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000019-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1433,7 +1559,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000001A-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1579,7 +1705,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000001B-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1707,7 +1833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000001C-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1871,7 +1997,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000001D-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2004,7 +2130,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2599,6 +2725,96 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:ln w="15875" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2896,7 +3112,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000019-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3060,7 +3276,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000001A-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3206,7 +3422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000001B-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,7 +3553,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000001C-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3501,7 +3717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000001D-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3634,7 +3850,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4430,7 +4646,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-30BE-49DB-ACC3-BE4A6FF45D67}"/>
+              <c16:uniqueId val="{00000019-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4619,7 +4835,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-30BE-49DB-ACC3-BE4A6FF45D67}"/>
+              <c16:uniqueId val="{0000001A-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4808,7 +5024,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-30BE-49DB-ACC3-BE4A6FF45D67}"/>
+              <c16:uniqueId val="{0000001B-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4997,7 +5213,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-30BE-49DB-ACC3-BE4A6FF45D67}"/>
+              <c16:uniqueId val="{0000001C-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5186,7 +5402,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-30BE-49DB-ACC3-BE4A6FF45D67}"/>
+              <c16:uniqueId val="{0000001D-30BE-49DB-ACC3-BE4A6FF45D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9894,7 +10110,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>215207</xdr:colOff>
+      <xdr:colOff>283607</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -12858,22 +13074,22 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="5">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13212,7 +13428,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13239,7 +13455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13500,7 +13716,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="30" series="1">
+    <chartFormat chart="13" format="36" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13512,7 +13728,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="31" series="1">
+    <chartFormat chart="13" format="37" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13524,7 +13740,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="32" series="1">
+    <chartFormat chart="13" format="38" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13536,7 +13752,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="33" series="1">
+    <chartFormat chart="13" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="40" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13548,19 +13776,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="13" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="35" series="1">
+    <chartFormat chart="13" format="41" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -18108,7 +18324,7 @@
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -18164,8 +18380,8 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Transformation data" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Informations" sheetId="5" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId4"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -350,7 +350,547 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="230">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000%"/>
     </dxf>
@@ -1395,7 +1935,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000037-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,7 +2099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000038-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1705,7 +2245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000039-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1833,7 +2373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000003A-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1997,7 +2537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{0000003B-BC98-4A24-96FC-2603D13FA4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3112,7 +3652,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000037-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3276,7 +3816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000038-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3422,7 +3962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000039-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3553,7 +4093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000003A-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3717,7 +4257,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{0000003B-1E8F-48D1-88E8-C69BF3C87B2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3789,6 +4329,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3934,1692 +4475,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Transformation data!Tableau croisé dynamique1</c:name>
-    <c:fmtId val="4"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="110000"/>
-                  <a:satMod val="105000"/>
-                  <a:tint val="67000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="103000"/>
-                  <a:tint val="73000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="105000"/>
-                  <a:satMod val="109000"/>
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$B$5:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cyclone</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$B$7:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.065040650406504E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12977099236641221</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62818003913894327</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.33620689655172414</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32769230769230767</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21224489795918366</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34696755994358253</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.40638002773925103</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.28729963008631321</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.35866666666666669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C12-496E-BDAD-C52EF970FE4D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$C$5:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>innondation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$C$7:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14754098360655737</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25203252032520324</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28244274809160308</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24769230769230768</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34460196292257361</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7714285714285708E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12346938775510204</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14386459802538787</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11095700416088766</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20221948212083848</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23958333333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-30BE-49DB-ACC3-BE4A6FF45D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$D$5:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ouragan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$D$7:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.85526315789473684</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73728813559322037</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72131147540983609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47967479674796748</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20610687022900764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78703703703703709</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22896281800391388</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24568965517241378</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25538461538461538</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16902944383860413</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.37257142857142855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.11734693877551021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13681241184767279</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.13869625520110956</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21824907521578299</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.41733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.13541666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-30BE-49DB-ACC3-BE4A6FF45D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$E$5:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>seisme</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$E$7:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6393442622950821E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2520325203252036E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29007633587786258</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7037037037037035E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.8461538461538461E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34787350054525629</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12448979591836734</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0267983074753172E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.2926490984743412E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19852034525277434</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0666666666666669E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.375E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-30BE-49DB-ACC3-BE4A6FF45D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$F$5:$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tremblement de terre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$F$7:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.130081300813009E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6666666666666671E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0534351145038167E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.6206896551724137E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0769230769230769E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1810250817884407E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1428571428571429E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0204081632653062E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-30BE-49DB-ACC3-BE4A6FF45D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Transformation data'!$G$5:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>typhon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Transformation data'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Transformation data'!$G$7:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.14473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26271186440677968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11475409836065574</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18699186991869918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3333333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1068702290076333E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12037037037037036</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40948275862068967</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1076923076923077</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13631406761177753</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15657142857142858</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.42142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28208744710860367</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25104022191400832</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.3711467324291003E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.5333333333333335E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-30BE-49DB-ACC3-BE4A6FF45D67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="583962271"/>
-        <c:axId val="583965183"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="583962271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="583965183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="583965183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="583962271"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6228,7 +5083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6695,6 +5550,1454 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Transformation data!Tableau croisé dynamique1</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$B$5:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cyclone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$B$7:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>innondation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$C$7:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ouragan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seisme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$E$7:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$F$5:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tremblement de terre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$F$7:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Transformation data'!$G$5:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>typhon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transformation data'!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transformation data'!$G$7:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-580B-420D-AEE5-12089207D958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2029734544"/>
+        <c:axId val="2029735376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2029734544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029735376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2029735376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029734544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -7949,7 +8252,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="301">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8474,531 +8777,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9512,6 +9290,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10001,7 +10295,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-FR" sz="1800" b="1"/>
-            <a:t>Répartition des articles par thème et par année</a:t>
+            <a:t>Evolution du</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" baseline="0"/>
+            <a:t> nombre d'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1"/>
+            <a:t>articles par thème et par année</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10202,38 +10504,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171447</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Graphique 11"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -10404,7 +10674,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10497,7 +10767,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10562,6 +10832,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Graphique 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11892,7 +12194,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43183.669772453701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43184.723944907404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E117" sheet="Data"/>
   </cacheSource>
@@ -12907,7 +13209,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0">
@@ -13071,29 +13373,38 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfRow" baseField="6" baseItem="1" numFmtId="9"/>
+    <dataField name="Somme de Nb article" fld="2" baseField="6" baseItem="9"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="47">
+  <formats count="7">
+    <format dxfId="227">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="226">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="225">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="224">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="223">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="222">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
+    <format dxfId="149">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="18">
+  <chartFormats count="24">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -13238,7 +13549,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="18" series="1">
+    <chartFormat chart="7" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13250,7 +13561,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="19" series="1">
+    <chartFormat chart="4" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13262,7 +13585,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="20" series="1">
+    <chartFormat chart="4" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13274,7 +13609,19 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="21" series="1">
+    <chartFormat chart="4" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13286,7 +13633,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
+    <chartFormat chart="7" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13298,7 +13645,43 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="23" series="1">
+    <chartFormat chart="7" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="47" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13321,7 +13704,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A83:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -13428,7 +13811,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="49">
+    <format dxfId="229">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13455,7 +13838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="228">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13504,7 +13887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A59:H80" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -13799,7 +14182,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -14155,7 +14538,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Thème" cache="Segment_Thème" caption="Thème" style="SlicerStyleLight3" rowHeight="241300"/>
-  <slicer name="Années" cache="Segment_Années" caption="Années" style="SlicerStyleLight3" rowHeight="241300"/>
+  <slicer name="Années" cache="Segment_Années" caption="Années" startItem="10" style="SlicerStyleLight3" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -14424,8 +14807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:B102"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14499,26 +14882,18 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.85526315789473684</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.14473684210526316</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <v>76</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
@@ -14534,26 +14909,18 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.73728813559322037</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.26271186440677968</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3">
+        <v>118</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
@@ -14569,26 +14936,18 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
+        <v>72</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
@@ -14604,26 +14963,22 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.14754098360655737</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.72131147540983609</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.6393442622950821E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>61</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
@@ -14639,26 +14994,26 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
-        <v>4.065040650406504E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.25203252032520324</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.47967479674796748</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.2520325203252036E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>8.130081300813009E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.18699186991869918</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3">
+        <v>123</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
@@ -14674,26 +15029,26 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.15666666666666668</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.64666666666666661</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="F12" s="6">
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
+      <c r="B12" s="3">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3">
+        <v>194</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>300</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
@@ -14709,26 +15064,26 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.12977099236641221</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.28244274809160308</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.20610687022900764</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.29007633587786258</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3.0534351145038167E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>6.1068702290076333E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>131</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
@@ -14744,26 +15099,22 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.78703703703703709</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>108</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
@@ -14779,26 +15130,20 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.62818003913894327</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.22896281800391388</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
+      <c r="B15" s="3">
+        <v>321</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>117</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>73</v>
+      </c>
+      <c r="H15" s="3">
+        <v>511</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
@@ -14814,26 +15159,22 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.33620689655172414</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.24568965517241378</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>8.6206896551724137E-3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.40948275862068967</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
+      <c r="B16" s="3">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>95</v>
+      </c>
+      <c r="H16" s="3">
+        <v>232</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
@@ -14849,26 +15190,26 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.32769230769230767</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.24769230769230768</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.25538461538461538</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5.8461538461538461E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3.0769230769230769E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
+      <c r="B17" s="3">
+        <v>213</v>
+      </c>
+      <c r="C17" s="3">
+        <v>161</v>
+      </c>
+      <c r="D17" s="3">
+        <v>166</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3">
+        <v>650</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
@@ -14884,26 +15225,24 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.34460196292257361</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.16902944383860413</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.34787350054525629</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2.1810250817884407E-3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.13631406761177753</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>316</v>
+      </c>
+      <c r="D18" s="3">
+        <v>155</v>
+      </c>
+      <c r="E18" s="3">
+        <v>319</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>125</v>
+      </c>
+      <c r="H18" s="3">
+        <v>917</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
@@ -14919,26 +15258,26 @@
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7.7714285714285708E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.37257142857142855</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1.1428571428571429E-3</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.15657142857142858</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="B19" s="3">
+        <v>203</v>
+      </c>
+      <c r="C19" s="3">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3">
+        <v>326</v>
+      </c>
+      <c r="E19" s="3">
+        <v>140</v>
+      </c>
+      <c r="F19" s="3">
         <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>137</v>
+      </c>
+      <c r="H19" s="3">
+        <v>875</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
@@ -14954,26 +15293,26 @@
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.21224489795918366</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.12346938775510204</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.11734693877551021</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.12448979591836734</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1.0204081632653062E-3</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.42142857142857143</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="B20" s="3">
+        <v>208</v>
+      </c>
+      <c r="C20" s="3">
+        <v>121</v>
+      </c>
+      <c r="D20" s="3">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3">
+        <v>122</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>413</v>
+      </c>
+      <c r="H20" s="3">
+        <v>980</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
@@ -14989,26 +15328,24 @@
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6">
-        <v>0.34696755994358253</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.14386459802538787</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.13681241184767279</v>
-      </c>
-      <c r="E21" s="6">
-        <v>9.0267983074753172E-2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.28208744710860367</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
+      <c r="B21" s="3">
+        <v>246</v>
+      </c>
+      <c r="C21" s="3">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3">
+        <v>97</v>
+      </c>
+      <c r="E21" s="3">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>709</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
@@ -15024,26 +15361,24 @@
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.40638002773925103</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.11095700416088766</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.13869625520110956</v>
-      </c>
-      <c r="E22" s="6">
-        <v>9.2926490984743412E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.25104022191400832</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
+      <c r="B22" s="3">
+        <v>293</v>
+      </c>
+      <c r="C22" s="3">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>67</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>181</v>
+      </c>
+      <c r="H22" s="3">
+        <v>721</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="3"/>
@@ -15059,26 +15394,24 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.28729963008631321</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.20221948212083848</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.21824907521578299</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.19852034525277434</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>9.3711467324291003E-2</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
+      <c r="B23" s="3">
+        <v>233</v>
+      </c>
+      <c r="C23" s="3">
+        <v>164</v>
+      </c>
+      <c r="D23" s="3">
+        <v>177</v>
+      </c>
+      <c r="E23" s="3">
+        <v>161</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>76</v>
+      </c>
+      <c r="H23" s="3">
+        <v>811</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
@@ -15094,26 +15427,24 @@
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.35866666666666669</v>
-      </c>
-      <c r="C24" s="6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.41733333333333333</v>
-      </c>
-      <c r="E24" s="6">
-        <v>7.0666666666666669E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>7.5333333333333335E-2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
+      <c r="B24" s="3">
+        <v>538</v>
+      </c>
+      <c r="C24" s="3">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3">
+        <v>626</v>
+      </c>
+      <c r="E24" s="3">
+        <v>106</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1500</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
@@ -15129,26 +15460,24 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="E25" s="6">
-        <v>9.375E-2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>3.125E-2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
+      <c r="B25" s="3">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>96</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
@@ -15164,26 +15493,26 @@
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.2731620509398287</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.14025136247358469</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.28550772995217438</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.12134356578801023</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1.6683350016683349E-3</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.17806695584473362</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
+      <c r="B26" s="3">
+        <v>2456</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1261</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2567</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1091</v>
+      </c>
+      <c r="F26" s="3">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1601</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8991</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -18380,8 +18709,8 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18608,7 +18937,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Tableau de bord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deloe\Desktop\Travail_ecole\M1_SID\Semestre 2\Projet_tableau_de_bord\Projet_Tableau_de_Bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -350,672 +350,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="230">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1461,7 +798,33 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1476,7 +839,33 @@
       <c:pivotFmt>
         <c:idx val="49"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1491,7 +880,33 @@
       <c:pivotFmt>
         <c:idx val="50"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1506,7 +921,33 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1521,7 +962,33 @@
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1536,7 +1003,33 @@
       <c:pivotFmt>
         <c:idx val="53"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3088,7 +2581,33 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3103,7 +2622,33 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3118,7 +2663,33 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3133,7 +2704,33 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3148,7 +2745,33 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3163,7 +2786,33 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3178,7 +2827,33 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3193,7 +2868,33 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3208,7 +2909,33 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3223,7 +2950,33 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3238,7 +2991,33 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3253,7 +3032,33 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -5792,6 +5597,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5807,6 +5615,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5822,6 +5633,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5837,6 +5651,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5852,6 +5669,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5866,6 +5686,99 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -10059,7 +9972,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>11 335 articles</a:t>
+            <a:t>9 552 articles</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13209,7 +13122,302 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Nb mort" fld="3" baseField="6" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0">
@@ -13376,25 +13584,25 @@
     <dataField name="Somme de Nb article" fld="2" baseField="6" baseItem="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="227">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13404,7 +13612,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="24">
+  <chartFormats count="30">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -13693,6 +13901,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -13703,8 +13983,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A83:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -13811,7 +14091,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="229">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13838,7 +14118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13886,8 +14166,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A59:H80" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -14160,301 +14440,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="13" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Nb mort" fld="3" baseField="6" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="54" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="55" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="57" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="58" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="59" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14811,31 +14796,31 @@
       <selection activeCell="A7" sqref="A7:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -14843,7 +14828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -14878,7 +14863,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -14905,7 +14890,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -14932,7 +14917,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -14959,7 +14944,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -14990,7 +14975,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -15025,7 +15010,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -15060,7 +15045,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -15095,7 +15080,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -15126,7 +15111,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -15155,7 +15140,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -15186,7 +15171,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -15221,7 +15206,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -15254,7 +15239,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -15289,7 +15274,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -15324,7 +15309,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -15357,7 +15342,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -15390,7 +15375,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -15423,7 +15408,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -15456,7 +15441,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -15489,7 +15474,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -15515,7 +15500,7 @@
         <v>8991</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -15523,7 +15508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -15549,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -15567,7 +15552,7 @@
         <v>5843</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -15585,7 +15570,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -15603,7 +15588,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -15621,7 +15606,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -15645,7 +15630,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -15671,7 +15656,7 @@
         <v>15321</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -15697,7 +15682,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -15719,7 +15704,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -15739,7 +15724,7 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -15761,7 +15746,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -15787,7 +15772,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -15813,7 +15798,7 @@
         <v>7226</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -15839,7 +15824,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -15865,7 +15850,7 @@
         <v>7768</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -15889,7 +15874,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -15913,7 +15898,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -15937,7 +15922,7 @@
         <v>6086</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -15961,7 +15946,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -15985,7 +15970,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -16011,7 +15996,7 @@
         <v>101413</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -16019,7 +16004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -16045,7 +16030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -16063,7 +16048,7 @@
         <v>4872327200</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -16081,7 +16066,7 @@
         <v>24157529255</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -16099,7 +16084,7 @@
         <v>12198735915</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -16119,7 +16104,7 @@
         <v>16251463034</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -16143,7 +16128,7 @@
         <v>17206350930</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -16169,7 +16154,7 @@
         <v>31361572096</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -16195,7 +16180,7 @@
         <v>13702633424</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -16217,7 +16202,7 @@
         <v>2581417908</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
@@ -16237,7 +16222,7 @@
         <v>12164601697</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -16259,7 +16244,7 @@
         <v>7836939512</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
@@ -16285,7 +16270,7 @@
         <v>23556668245</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
@@ -16311,7 +16296,7 @@
         <v>17868056984</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>15</v>
       </c>
@@ -16337,7 +16322,7 @@
         <v>16105978506</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -16363,7 +16348,7 @@
         <v>16542574224</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>17</v>
       </c>
@@ -16387,7 +16372,7 @@
         <v>13975334899</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -16411,7 +16396,7 @@
         <v>10921569605</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
@@ -16435,7 +16420,7 @@
         <v>20941758154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>20</v>
       </c>
@@ -16459,7 +16444,7 @@
         <v>26245202242</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -16483,7 +16468,7 @@
         <v>36524193637</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -16509,7 +16494,7 @@
         <v>325014907467</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -16517,7 +16502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -16525,7 +16510,7 @@
         <v>8.4528973417862304E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -16533,7 +16518,7 @@
         <v>1.3124235346457569E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -16541,7 +16526,7 @@
         <v>8.0080080080080079E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -16549,7 +16534,7 @@
         <v>6.7845623401178957E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -16557,7 +16542,7 @@
         <v>1.3680347013680347E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
@@ -16565,7 +16550,7 @@
         <v>3.3366700033366697E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -16573,7 +16558,7 @@
         <v>1.4570125681236792E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -16581,7 +16566,7 @@
         <v>1.2012012012012012E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
@@ -16589,7 +16574,7 @@
         <v>5.6834612390167946E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -16597,7 +16582,7 @@
         <v>2.5803581359136914E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
@@ -16605,7 +16590,7 @@
         <v>7.2294516738961187E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -16613,7 +16598,7 @@
         <v>0.10199087976865755</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
@@ -16621,7 +16606,7 @@
         <v>9.7319541763986203E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -16629,7 +16614,7 @@
         <v>0.10899788677566455</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -16637,7 +16622,7 @@
         <v>7.8856634412189971E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>18</v>
       </c>
@@ -16645,7 +16630,7 @@
         <v>8.0191302413524637E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>19</v>
       </c>
@@ -16653,7 +16638,7 @@
         <v>9.0201312423534644E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>20</v>
       </c>
@@ -16661,7 +16646,7 @@
         <v>0.16683350016683349</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>21</v>
       </c>
@@ -16669,7 +16654,7 @@
         <v>1.0677344010677344E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -16690,21 +16675,21 @@
       <selection activeCell="J3" activeCellId="1" sqref="H3:H7 J3:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>47</v>
       </c>
@@ -16712,7 +16697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -16740,7 +16725,7 @@
         <v>0.16222512113306001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>36699</v>
       </c>
@@ -16761,7 +16746,7 @@
         <v>0.20070816250465898</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>36700</v>
       </c>
@@ -16782,7 +16767,7 @@
         <v>0.36982855013045096</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>36701</v>
       </c>
@@ -16810,7 +16795,7 @@
         <v>3.3730898248229592E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>36702</v>
       </c>
@@ -16831,7 +16816,7 @@
         <v>0.23350726798360044</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>36703</v>
       </c>
@@ -16853,7 +16838,7 @@
         <v>10732</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>36704</v>
       </c>
@@ -16864,7 +16849,7 @@
       <c r="D9" s="7"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>37065</v>
       </c>
@@ -16875,7 +16860,7 @@
       <c r="D10" s="7"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>37066</v>
       </c>
@@ -16886,7 +16871,7 @@
       <c r="D11" s="7"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>37067</v>
       </c>
@@ -16904,7 +16889,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>37068</v>
       </c>
@@ -16915,7 +16900,7 @@
       <c r="D13" s="7"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>37069</v>
       </c>
@@ -16933,7 +16918,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>37070</v>
       </c>
@@ -16944,7 +16929,7 @@
       <c r="D15" s="7"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>37431</v>
       </c>
@@ -16955,7 +16940,7 @@
       <c r="D16" s="7"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>37432</v>
       </c>
@@ -16966,7 +16951,7 @@
       <c r="D17" s="7"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>37433</v>
       </c>
@@ -16984,7 +16969,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>37434</v>
       </c>
@@ -16995,7 +16980,7 @@
       <c r="D19" s="7"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>37435</v>
       </c>
@@ -17013,7 +16998,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>37436</v>
       </c>
@@ -17024,7 +17009,7 @@
       <c r="D21" s="7"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>37797</v>
       </c>
@@ -17035,7 +17020,7 @@
       <c r="D22" s="7"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>37798</v>
       </c>
@@ -17051,7 +17036,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>37799</v>
       </c>
@@ -17069,7 +17054,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>37800</v>
       </c>
@@ -17080,7 +17065,7 @@
       <c r="D25" s="7"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>37801</v>
       </c>
@@ -17098,7 +17083,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>37802</v>
       </c>
@@ -17111,7 +17096,7 @@
       <c r="D27" s="7"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>38164</v>
       </c>
@@ -17126,7 +17111,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>38165</v>
       </c>
@@ -17144,7 +17129,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>38166</v>
       </c>
@@ -17162,7 +17147,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>38167</v>
       </c>
@@ -17178,7 +17163,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>38168</v>
       </c>
@@ -17196,7 +17181,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>38169</v>
       </c>
@@ -17214,7 +17199,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>38530</v>
       </c>
@@ -17232,7 +17217,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>38531</v>
       </c>
@@ -17250,7 +17235,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>38532</v>
       </c>
@@ -17268,7 +17253,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>38533</v>
       </c>
@@ -17286,7 +17271,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>38534</v>
       </c>
@@ -17304,7 +17289,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38535</v>
       </c>
@@ -17322,7 +17307,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38895</v>
       </c>
@@ -17340,7 +17325,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>38896</v>
       </c>
@@ -17358,7 +17343,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>38897</v>
       </c>
@@ -17376,7 +17361,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>38898</v>
       </c>
@@ -17394,7 +17379,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>38899</v>
       </c>
@@ -17412,7 +17397,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>38900</v>
       </c>
@@ -17430,7 +17415,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>39260</v>
       </c>
@@ -17448,7 +17433,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>39261</v>
       </c>
@@ -17459,7 +17444,7 @@
       <c r="D47" s="7"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>39262</v>
       </c>
@@ -17477,7 +17462,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>39263</v>
       </c>
@@ -17488,7 +17473,7 @@
       <c r="D49" s="7"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>39264</v>
       </c>
@@ -17506,7 +17491,7 @@
       </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>39265</v>
       </c>
@@ -17524,7 +17509,7 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>39626</v>
       </c>
@@ -17542,7 +17527,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>39627</v>
       </c>
@@ -17553,7 +17538,7 @@
       <c r="D53" s="7"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>39628</v>
       </c>
@@ -17571,7 +17556,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>39629</v>
       </c>
@@ -17582,7 +17567,7 @@
       <c r="D55" s="7"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>39630</v>
       </c>
@@ -17600,7 +17585,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>39631</v>
       </c>
@@ -17611,7 +17596,7 @@
       <c r="D57" s="7"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>39991</v>
       </c>
@@ -17629,7 +17614,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>39992</v>
       </c>
@@ -17640,7 +17625,7 @@
       <c r="D59" s="7"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>39993</v>
       </c>
@@ -17658,7 +17643,7 @@
       </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>39994</v>
       </c>
@@ -17676,7 +17661,7 @@
       </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>39995</v>
       </c>
@@ -17694,7 +17679,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>39996</v>
       </c>
@@ -17705,7 +17690,7 @@
       <c r="D63" s="7"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>40356</v>
       </c>
@@ -17723,7 +17708,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>40357</v>
       </c>
@@ -17741,7 +17726,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>40358</v>
       </c>
@@ -17759,7 +17744,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>40359</v>
       </c>
@@ -17777,7 +17762,7 @@
       </c>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>40360</v>
       </c>
@@ -17795,7 +17780,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>40361</v>
       </c>
@@ -17813,7 +17798,7 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>40721</v>
       </c>
@@ -17829,7 +17814,7 @@
       </c>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>40722</v>
       </c>
@@ -17847,7 +17832,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>40723</v>
       </c>
@@ -17865,7 +17850,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>40724</v>
       </c>
@@ -17883,7 +17868,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>40725</v>
       </c>
@@ -17901,7 +17886,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>40726</v>
       </c>
@@ -17919,7 +17904,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>41087</v>
       </c>
@@ -17937,7 +17922,7 @@
       </c>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>41088</v>
       </c>
@@ -17955,7 +17940,7 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>41089</v>
       </c>
@@ -17973,7 +17958,7 @@
       </c>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>41090</v>
       </c>
@@ -17991,7 +17976,7 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>41091</v>
       </c>
@@ -18009,7 +17994,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>41092</v>
       </c>
@@ -18027,7 +18012,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>41452</v>
       </c>
@@ -18045,7 +18030,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>41453</v>
       </c>
@@ -18063,7 +18048,7 @@
       </c>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>41454</v>
       </c>
@@ -18081,7 +18066,7 @@
       </c>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>41455</v>
       </c>
@@ -18099,7 +18084,7 @@
       </c>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>41456</v>
       </c>
@@ -18117,7 +18102,7 @@
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>41457</v>
       </c>
@@ -18135,7 +18120,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>41817</v>
       </c>
@@ -18153,7 +18138,7 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>41818</v>
       </c>
@@ -18171,7 +18156,7 @@
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>41819</v>
       </c>
@@ -18189,7 +18174,7 @@
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>41820</v>
       </c>
@@ -18200,7 +18185,7 @@
       <c r="D91" s="7"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>41821</v>
       </c>
@@ -18218,7 +18203,7 @@
       </c>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>41822</v>
       </c>
@@ -18236,7 +18221,7 @@
       </c>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>42182</v>
       </c>
@@ -18254,7 +18239,7 @@
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>42183</v>
       </c>
@@ -18272,7 +18257,7 @@
       </c>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>42184</v>
       </c>
@@ -18290,7 +18275,7 @@
       </c>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>42185</v>
       </c>
@@ -18301,7 +18286,7 @@
       <c r="D97" s="7"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>42186</v>
       </c>
@@ -18319,7 +18304,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>42187</v>
       </c>
@@ -18337,7 +18322,7 @@
       </c>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>42548</v>
       </c>
@@ -18355,7 +18340,7 @@
       </c>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>42549</v>
       </c>
@@ -18373,7 +18358,7 @@
       </c>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>42550</v>
       </c>
@@ -18391,7 +18376,7 @@
       </c>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>42551</v>
       </c>
@@ -18402,7 +18387,7 @@
       <c r="D103" s="7"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>42552</v>
       </c>
@@ -18420,7 +18405,7 @@
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>42553</v>
       </c>
@@ -18438,7 +18423,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>42913</v>
       </c>
@@ -18456,7 +18441,7 @@
       </c>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>42914</v>
       </c>
@@ -18474,7 +18459,7 @@
       </c>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>42915</v>
       </c>
@@ -18492,7 +18477,7 @@
       </c>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>42916</v>
       </c>
@@ -18503,7 +18488,7 @@
       <c r="D109" s="7"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>42917</v>
       </c>
@@ -18521,7 +18506,7 @@
       </c>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>42918</v>
       </c>
@@ -18539,7 +18524,7 @@
       </c>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>43278</v>
       </c>
@@ -18557,7 +18542,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>43279</v>
       </c>
@@ -18575,7 +18560,7 @@
       </c>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>43280</v>
       </c>
@@ -18593,7 +18578,7 @@
       </c>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>43281</v>
       </c>
@@ -18604,7 +18589,7 @@
       <c r="D115" s="7"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>43282</v>
       </c>
@@ -18622,7 +18607,7 @@
       </c>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>43283</v>
       </c>
@@ -18653,46 +18638,46 @@
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="23.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="102.5703125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.44140625" style="11"/>
+    <col min="2" max="2" width="23.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="102.5546875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="2:3" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="15"/>
     </row>
   </sheetData>
@@ -18709,17 +18694,17 @@
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="5.6640625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -18727,7 +18712,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -18741,7 +18726,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -18749,7 +18734,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -18757,7 +18742,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -18765,7 +18750,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -18773,7 +18758,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -18781,7 +18766,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -18789,7 +18774,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -18797,7 +18782,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -18805,7 +18790,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -18813,7 +18798,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -18821,7 +18806,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -18829,7 +18814,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -18837,7 +18822,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -18845,7 +18830,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -18880,19 +18865,19 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="9"/>
-    <col min="7" max="7" width="4.85546875" style="9" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" style="9"/>
-    <col min="12" max="12" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" style="9"/>
+    <col min="7" max="7" width="4.88671875" style="9" customWidth="1"/>
+    <col min="8" max="11" width="11.44140625" style="9"/>
+    <col min="12" max="12" width="8.44140625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -18906,11 +18891,11 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:16" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:16" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -18937,13 +18922,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18962,9 +18947,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Tableau de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Transformation data" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="51">
   <si>
     <t>Année</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t>Nb</t>
   </si>
+  <si>
+    <t>carte\mondial.html</t>
+  </si>
+  <si>
+    <t>dadd</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +213,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +265,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -304,13 +318,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,679 +358,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="230">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1461,7 +815,33 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1476,7 +856,33 @@
       <c:pivotFmt>
         <c:idx val="49"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1491,7 +897,33 @@
       <c:pivotFmt>
         <c:idx val="50"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1506,7 +938,33 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1521,7 +979,33 @@
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1536,7 +1020,33 @@
       <c:pivotFmt>
         <c:idx val="53"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -1935,7 +1445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000000-A43A-49D5-BDDB-F8CB003DB285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2099,7 +1609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000001-A43A-49D5-BDDB-F8CB003DB285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2245,7 +1755,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000002-A43A-49D5-BDDB-F8CB003DB285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2373,7 +1883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000003-A43A-49D5-BDDB-F8CB003DB285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2537,7 +2047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-BC98-4A24-96FC-2603D13FA4FE}"/>
+              <c16:uniqueId val="{00000004-A43A-49D5-BDDB-F8CB003DB285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3088,7 +2598,33 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3103,7 +2639,33 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3118,7 +2680,33 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3133,7 +2721,33 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3148,7 +2762,33 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3163,7 +2803,33 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3178,7 +2844,33 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3193,7 +2885,33 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3208,7 +2926,33 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3223,7 +2967,33 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3238,7 +3008,33 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3253,7 +3049,33 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
-          <a:ln w="15875" cap="rnd">
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -3652,7 +3474,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000000-5805-40C3-9E15-4443D4EE4DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3816,7 +3638,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000001-5805-40C3-9E15-4443D4EE4DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3962,7 +3784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000039-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000002-5805-40C3-9E15-4443D4EE4DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4093,7 +3915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003A-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000003-5805-40C3-9E15-4443D4EE4DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4257,7 +4079,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000003B-1E8F-48D1-88E8-C69BF3C87B2C}"/>
+              <c16:uniqueId val="{00000004-5805-40C3-9E15-4443D4EE4DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5792,6 +5614,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5807,6 +5632,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5822,6 +5650,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5837,6 +5668,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5852,6 +5686,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5866,6 +5703,99 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -6176,7 +6106,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-580B-420D-AEE5-12089207D958}"/>
+              <c16:uniqueId val="{00000000-A5D5-4DE4-A230-0A26B450BC7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6340,7 +6270,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-580B-420D-AEE5-12089207D958}"/>
+              <c16:uniqueId val="{00000001-A5D5-4DE4-A230-0A26B450BC7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6489,7 +6419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-580B-420D-AEE5-12089207D958}"/>
+              <c16:uniqueId val="{00000002-A5D5-4DE4-A230-0A26B450BC7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6620,7 +6550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-580B-420D-AEE5-12089207D958}"/>
+              <c16:uniqueId val="{00000003-A5D5-4DE4-A230-0A26B450BC7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6784,7 +6714,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-580B-420D-AEE5-12089207D958}"/>
+              <c16:uniqueId val="{00000004-A5D5-4DE4-A230-0A26B450BC7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9806,6 +9736,10 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -12193,6 +12127,77 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7171" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7171"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Bouton 3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nicolas brouté" refreshedDate="43184.723944907404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114">
   <cacheSource type="worksheet">
@@ -13209,7 +13214,302 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Nb mort" fld="3" baseField="6" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A5:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0">
@@ -13376,25 +13676,25 @@
     <dataField name="Somme de Nb article" fld="2" baseField="6" baseItem="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="227">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13404,7 +13704,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="24">
+  <chartFormats count="30">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -13693,6 +13993,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -13703,8 +14075,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A83:B103" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -13811,7 +14183,7 @@
     <dataField name="Somme de Nb article" fld="2" showDataAs="percentOfCol" baseField="6" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="229">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13838,7 +14210,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="19">
@@ -13886,8 +14258,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A59:H80" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="165" showAll="0"/>
@@ -14160,301 +14532,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="13" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A34:H55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Nb mort" fld="3" baseField="6" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="54" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="55" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="57" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="58" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="59" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -14805,6 +14882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A2:T103"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -16684,6 +16762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18648,7 +18727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil3">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B3:C16"/>
@@ -18704,13 +18783,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil4">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18871,7 +18950,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil5">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B1:P18"/>
@@ -18932,12 +19011,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil6">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -18952,21 +19031,64 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil7">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7171" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Macro1">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>